--- a/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.970721847843978</v>
+        <v>0.9707218478439767</v>
       </c>
       <c r="D2">
-        <v>0.9953836221972221</v>
+        <v>0.995383622197221</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9459530047076601</v>
+        <v>0.9459530047076593</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.034175869581734</v>
       </c>
       <c r="J2">
-        <v>0.993814975220314</v>
+        <v>0.9938149752203129</v>
       </c>
       <c r="K2">
-        <v>1.006907647370745</v>
+        <v>1.006907647370744</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9582204400586175</v>
+        <v>0.9582204400586166</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9789797916338218</v>
+        <v>0.9789797916338205</v>
       </c>
       <c r="D3">
-        <v>1.001403198909802</v>
+        <v>1.001403198909801</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9572479101578216</v>
+        <v>0.9572479101578203</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036722620140385</v>
+        <v>1.036722620140384</v>
       </c>
       <c r="J3">
-        <v>1.000060366159083</v>
+        <v>1.000060366159082</v>
       </c>
       <c r="K3">
-        <v>1.012018156973803</v>
+        <v>1.012018156973802</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.968458704095762</v>
+        <v>0.9684587040957608</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9841182962712326</v>
+        <v>0.9841182962712319</v>
       </c>
       <c r="D4">
-        <v>1.005150341295454</v>
+        <v>1.005150341295453</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9642627317688875</v>
+        <v>0.964262731768887</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.038288392996062</v>
       </c>
       <c r="J4">
-        <v>1.003937171231138</v>
+        <v>1.003937171231137</v>
       </c>
       <c r="K4">
-        <v>1.015187001146029</v>
+        <v>1.015187001146028</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9748125087686466</v>
+        <v>0.9748125087686458</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9862328946064391</v>
+        <v>0.9862328946064389</v>
       </c>
       <c r="D5">
         <v>1.00669255359061</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>0.9671469634825327</v>
+        <v>0.9671469634825328</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.005530280882673</v>
       </c>
       <c r="K5">
-        <v>1.016488279980615</v>
+        <v>1.016488279980614</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>0.9774237364330124</v>
+        <v>0.9774237364330123</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9865853618151024</v>
+        <v>0.9865853618151021</v>
       </c>
       <c r="D6">
-        <v>1.006949620412913</v>
+        <v>1.006949620412912</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>0.9676275868295434</v>
+        <v>0.9676275868295432</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039034463361901</v>
+        <v>1.0390344633619</v>
       </c>
       <c r="J6">
         <v>1.005795690444881</v>
       </c>
       <c r="K6">
-        <v>1.016705015752798</v>
+        <v>1.016705015752797</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>0.9778587932211811</v>
+        <v>0.9778587932211806</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9841467266822012</v>
+        <v>0.9841467266822007</v>
       </c>
       <c r="D7">
         <v>1.005171075537212</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9643015188369002</v>
+        <v>0.9643015188368997</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.038297012340578</v>
       </c>
       <c r="J7">
-        <v>1.003958599362052</v>
+        <v>1.003958599362051</v>
       </c>
       <c r="K7">
         <v>1.015204507686968</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>0.9748476294083395</v>
+        <v>0.974847629408339</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,28 +649,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.973557290323488</v>
+        <v>0.9735572903234877</v>
       </c>
       <c r="D8">
-        <v>0.9974500845770716</v>
+        <v>0.9974500845770712</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9498345425517742</v>
+        <v>0.949834542551774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035054288255297</v>
+        <v>1.035054288255296</v>
       </c>
       <c r="J8">
-        <v>0.9959613701135626</v>
+        <v>0.9959613701135621</v>
       </c>
       <c r="K8">
-        <v>1.008664707234617</v>
+        <v>1.008664707234616</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9531484839310412</v>
+        <v>0.9531484839310408</v>
       </c>
       <c r="D9">
-        <v>0.9825904395892142</v>
+        <v>0.9825904395892144</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9218002811214057</v>
+        <v>0.9218002811214048</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028652046750677</v>
       </c>
       <c r="J9">
-        <v>0.9804715391279438</v>
+        <v>0.9804715391279436</v>
       </c>
       <c r="K9">
         <v>0.9959724346077614</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9363037505684284</v>
+        <v>0.9363037505684275</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9380657410483491</v>
+        <v>0.9380657410483492</v>
       </c>
       <c r="D10">
-        <v>0.9716374084004151</v>
+        <v>0.9716374084004153</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.9361465105547164</v>
       </c>
       <c r="F10">
-        <v>0.9009039776238317</v>
+        <v>0.9009039776238316</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.023822209283668</v>
       </c>
       <c r="J10">
-        <v>0.9689720022570607</v>
+        <v>0.9689720022570608</v>
       </c>
       <c r="K10">
-        <v>0.9865383630323978</v>
+        <v>0.9865383630323982</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9517730114689266</v>
       </c>
       <c r="M10">
         <v>0.9173269197020486</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.931097624715873</v>
+        <v>0.9310976247158745</v>
       </c>
       <c r="D11">
-        <v>0.9665879008932636</v>
+        <v>0.966587900893265</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.8911854095392491</v>
+        <v>0.8911854095392504</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021569096372627</v>
+        <v>1.021569096372628</v>
       </c>
       <c r="J11">
-        <v>0.9636469497545124</v>
+        <v>0.9636469497545137</v>
       </c>
       <c r="K11">
-        <v>0.9821686799066779</v>
+        <v>0.9821686799066793</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>0.9084992377582499</v>
+        <v>0.9084992377582513</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9284342978049607</v>
+        <v>0.9284342978049582</v>
       </c>
       <c r="D12">
-        <v>0.9646598974251546</v>
+        <v>0.9646598974251525</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.887458630200489</v>
+        <v>0.8874586302004862</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020704811331057</v>
+        <v>1.020704811331056</v>
       </c>
       <c r="J12">
-        <v>0.9616097618512482</v>
+        <v>0.9616097618512462</v>
       </c>
       <c r="K12">
-        <v>0.9804969910719434</v>
+        <v>0.9804969910719413</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>0.9051140640921922</v>
+        <v>0.9051140640921895</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290091601926622</v>
+        <v>0.9290091601926627</v>
       </c>
       <c r="D13">
-        <v>0.96507594783961</v>
+        <v>0.9650759478396106</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.9318723593368228</v>
       </c>
       <c r="F13">
-        <v>0.8882636274365668</v>
+        <v>0.8882636274365671</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.020891499121174</v>
       </c>
       <c r="J13">
-        <v>0.9620495605318609</v>
+        <v>0.9620495605318614</v>
       </c>
       <c r="K13">
-        <v>0.9808578806044985</v>
+        <v>0.980857880604499</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>0.9058452696019937</v>
+        <v>0.9058452696019942</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9308790660397401</v>
+        <v>0.9308790660397389</v>
       </c>
       <c r="D14">
-        <v>0.9664296416612473</v>
+        <v>0.9664296416612466</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.8908798441511753</v>
+        <v>0.8908798441511738</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021498233009681</v>
       </c>
       <c r="J14">
-        <v>0.9634798113186823</v>
+        <v>0.9634798113186811</v>
       </c>
       <c r="K14">
-        <v>0.9820315271639599</v>
+        <v>0.9820315271639589</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9082216800202422</v>
+        <v>0.9082216800202408</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9320209154846819</v>
+        <v>0.9320209154846837</v>
       </c>
       <c r="D15">
-        <v>0.9672565429345227</v>
+        <v>0.9672565429345249</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.8924757466466418</v>
+        <v>0.8924757466466439</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021868330470575</v>
+        <v>1.021868330470576</v>
       </c>
       <c r="J15">
-        <v>0.9643529425003423</v>
+        <v>0.9643529425003443</v>
       </c>
       <c r="K15">
-        <v>0.9827480144241456</v>
+        <v>0.9827480144241475</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9096713053151131</v>
+        <v>0.909671305315115</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9385182255011608</v>
+        <v>0.9385182255011609</v>
       </c>
       <c r="D16">
         <v>0.9719655562027616</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9015335479761096</v>
+        <v>0.9015335479761095</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1.02396808494392</v>
       </c>
       <c r="J16">
-        <v>0.9693175381574416</v>
+        <v>0.9693175381574418</v>
       </c>
       <c r="K16">
         <v>0.986821897502157</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9424707497620655</v>
+        <v>0.9424707497620658</v>
       </c>
       <c r="D17">
-        <v>0.9748332150575955</v>
+        <v>0.9748332150575957</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9070255072642907</v>
+        <v>0.9070255072642912</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025239921812869</v>
+        <v>1.02523992181287</v>
       </c>
       <c r="J17">
-        <v>0.9723344725020994</v>
+        <v>0.9723344725020997</v>
       </c>
       <c r="K17">
-        <v>0.9892973832937325</v>
+        <v>0.989297383293733</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9228869445353137</v>
+        <v>0.9228869445353141</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.944734734645039</v>
+        <v>0.9447347346450379</v>
       </c>
       <c r="D18">
-        <v>0.9764767609020629</v>
+        <v>0.9764767609020617</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9101654610286919</v>
+        <v>0.9101654610286914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025966393385014</v>
+        <v>1.025966393385013</v>
       </c>
       <c r="J18">
-        <v>0.9740614121825348</v>
+        <v>0.9740614121825338</v>
       </c>
       <c r="K18">
-        <v>0.9907142775586255</v>
+        <v>0.9907142775586244</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.9257386836379612</v>
+        <v>0.9257386836379605</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9454999166915017</v>
+        <v>0.9454999166915012</v>
       </c>
       <c r="D19">
-        <v>0.9770324002610323</v>
+        <v>0.977032400261032</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680091</v>
       </c>
       <c r="F19">
-        <v>0.9112257805259711</v>
+        <v>0.9112257805259708</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.026211577659746</v>
       </c>
       <c r="J19">
-        <v>0.9746448895599797</v>
+        <v>0.9746448895599793</v>
       </c>
       <c r="K19">
-        <v>0.9911929771125747</v>
+        <v>0.9911929771125745</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493812711</v>
       </c>
       <c r="M19">
-        <v>0.9267016386813336</v>
+        <v>0.9267016386813329</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9420510307057093</v>
+        <v>0.9420510307057089</v>
       </c>
       <c r="D20">
-        <v>0.9745285948272335</v>
+        <v>0.9745285948272336</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9064429361612015</v>
+        <v>0.906442936161201</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025105075644524</v>
+        <v>1.025105075644523</v>
       </c>
       <c r="J20">
-        <v>0.9720142230685999</v>
+        <v>0.9720142230685995</v>
       </c>
       <c r="K20">
-        <v>0.9890346195298275</v>
+        <v>0.9890346195298276</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9223578304631448</v>
+        <v>0.9223578304631442</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9303305829881527</v>
+        <v>0.9303305829881536</v>
       </c>
       <c r="D21">
-        <v>0.9660325163483808</v>
+        <v>0.9660325163483814</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.8901128088355852</v>
+        <v>0.890112808835586</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021320348862543</v>
       </c>
       <c r="J21">
-        <v>0.9630603397217552</v>
+        <v>0.9630603397217562</v>
       </c>
       <c r="K21">
-        <v>0.9816873121558062</v>
+        <v>0.9816873121558066</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.907524950583728</v>
+        <v>0.9075249505837286</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9225209199539275</v>
+        <v>0.9225209199539282</v>
       </c>
       <c r="D22">
-        <v>0.9603833547220828</v>
+        <v>0.960383354722083</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8791581407677679</v>
+        <v>0.8791581407677683</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018780276668526</v>
+        <v>1.018780276668527</v>
       </c>
       <c r="J22">
-        <v>0.9570831101352113</v>
+        <v>0.9570831101352117</v>
       </c>
       <c r="K22">
-        <v>0.9767827100358204</v>
+        <v>0.976782710035821</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.8975747187780562</v>
+        <v>0.8975747187780566</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9267064360586669</v>
+        <v>0.9267064360586654</v>
       </c>
       <c r="D23">
-        <v>0.9634097031282093</v>
+        <v>0.9634097031282082</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8850370389332618</v>
+        <v>0.8850370389332606</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020143242199102</v>
       </c>
       <c r="J23">
-        <v>0.9602875849998996</v>
+        <v>0.9602875849998984</v>
       </c>
       <c r="K23">
-        <v>0.9794120563015546</v>
+        <v>0.9794120563015535</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9029144729212931</v>
+        <v>0.9029144729212919</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1260,31 +1260,31 @@
         <v>0.9422408111026247</v>
       </c>
       <c r="D24">
-        <v>0.9746663290963059</v>
+        <v>0.9746663290963058</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9067063697484912</v>
+        <v>0.9067063697484913</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025166054093548</v>
+        <v>1.025166054093549</v>
       </c>
       <c r="J24">
-        <v>0.9721590307892004</v>
+        <v>0.9721590307892006</v>
       </c>
       <c r="K24">
         <v>0.9891534342200092</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.953371659644245</v>
       </c>
       <c r="M24">
-        <v>0.9225970918493586</v>
+        <v>0.9225970918493585</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9586597660877635</v>
+        <v>0.958659766087763</v>
       </c>
       <c r="D25">
-        <v>0.9865994927216106</v>
+        <v>0.9865994927216103</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>0.9293946910117704</v>
+        <v>0.9293946910117701</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030397898576798</v>
       </c>
       <c r="J25">
-        <v>0.9846632413015204</v>
+        <v>0.9846632413015203</v>
       </c>
       <c r="K25">
-        <v>0.9994094584048883</v>
+        <v>0.9994094584048882</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>0.9431977776793345</v>
+        <v>0.9431977776793342</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9707218478439767</v>
+        <v>0.970721847843978</v>
       </c>
       <c r="D2">
-        <v>0.995383622197221</v>
+        <v>0.9953836221972221</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9459530047076593</v>
+        <v>0.9459530047076601</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.034175869581734</v>
       </c>
       <c r="J2">
-        <v>0.9938149752203129</v>
+        <v>0.993814975220314</v>
       </c>
       <c r="K2">
-        <v>1.006907647370744</v>
+        <v>1.006907647370745</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9582204400586166</v>
+        <v>0.9582204400586175</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9789797916338205</v>
+        <v>0.9789797916338218</v>
       </c>
       <c r="D3">
-        <v>1.001403198909801</v>
+        <v>1.001403198909802</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9572479101578203</v>
+        <v>0.9572479101578216</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036722620140384</v>
+        <v>1.036722620140385</v>
       </c>
       <c r="J3">
-        <v>1.000060366159082</v>
+        <v>1.000060366159083</v>
       </c>
       <c r="K3">
-        <v>1.012018156973802</v>
+        <v>1.012018156973803</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9684587040957608</v>
+        <v>0.968458704095762</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9841182962712319</v>
+        <v>0.9841182962712326</v>
       </c>
       <c r="D4">
-        <v>1.005150341295453</v>
+        <v>1.005150341295454</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.964262731768887</v>
+        <v>0.9642627317688875</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.038288392996062</v>
       </c>
       <c r="J4">
-        <v>1.003937171231137</v>
+        <v>1.003937171231138</v>
       </c>
       <c r="K4">
-        <v>1.015187001146028</v>
+        <v>1.015187001146029</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9748125087686458</v>
+        <v>0.9748125087686466</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9862328946064389</v>
+        <v>0.9862328946064391</v>
       </c>
       <c r="D5">
         <v>1.00669255359061</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9671469634825328</v>
+        <v>0.9671469634825327</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.005530280882673</v>
       </c>
       <c r="K5">
-        <v>1.016488279980614</v>
+        <v>1.016488279980615</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9774237364330123</v>
+        <v>0.9774237364330124</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9865853618151021</v>
+        <v>0.9865853618151024</v>
       </c>
       <c r="D6">
-        <v>1.006949620412912</v>
+        <v>1.006949620412913</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9676275868295432</v>
+        <v>0.9676275868295434</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0390344633619</v>
+        <v>1.039034463361901</v>
       </c>
       <c r="J6">
         <v>1.005795690444881</v>
       </c>
       <c r="K6">
-        <v>1.016705015752797</v>
+        <v>1.016705015752798</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9778587932211806</v>
+        <v>0.9778587932211811</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9841467266822007</v>
+        <v>0.9841467266822012</v>
       </c>
       <c r="D7">
         <v>1.005171075537212</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9643015188368997</v>
+        <v>0.9643015188369002</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.038297012340578</v>
       </c>
       <c r="J7">
-        <v>1.003958599362051</v>
+        <v>1.003958599362052</v>
       </c>
       <c r="K7">
         <v>1.015204507686968</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.974847629408339</v>
+        <v>0.9748476294083395</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,28 +649,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9735572903234877</v>
+        <v>0.973557290323488</v>
       </c>
       <c r="D8">
-        <v>0.9974500845770712</v>
+        <v>0.9974500845770716</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.949834542551774</v>
+        <v>0.9498345425517742</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035054288255296</v>
+        <v>1.035054288255297</v>
       </c>
       <c r="J8">
-        <v>0.9959613701135621</v>
+        <v>0.9959613701135626</v>
       </c>
       <c r="K8">
-        <v>1.008664707234616</v>
+        <v>1.008664707234617</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9531484839310408</v>
+        <v>0.9531484839310412</v>
       </c>
       <c r="D9">
-        <v>0.9825904395892144</v>
+        <v>0.9825904395892142</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9218002811214048</v>
+        <v>0.9218002811214057</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028652046750677</v>
       </c>
       <c r="J9">
-        <v>0.9804715391279436</v>
+        <v>0.9804715391279438</v>
       </c>
       <c r="K9">
         <v>0.9959724346077614</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9363037505684275</v>
+        <v>0.9363037505684284</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9380657410483492</v>
+        <v>0.9380657410483491</v>
       </c>
       <c r="D10">
-        <v>0.9716374084004153</v>
+        <v>0.9716374084004151</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.9009039776238316</v>
+        <v>0.9009039776238317</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.023822209283668</v>
       </c>
       <c r="J10">
-        <v>0.9689720022570608</v>
+        <v>0.9689720022570607</v>
       </c>
       <c r="K10">
-        <v>0.9865383630323982</v>
+        <v>0.9865383630323978</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>0.9517730114689269</v>
       </c>
       <c r="M10">
         <v>0.9173269197020486</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9310976247158745</v>
+        <v>0.931097624715873</v>
       </c>
       <c r="D11">
-        <v>0.966587900893265</v>
+        <v>0.9665879008932636</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.8911854095392504</v>
+        <v>0.8911854095392491</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021569096372628</v>
+        <v>1.021569096372627</v>
       </c>
       <c r="J11">
-        <v>0.9636469497545137</v>
+        <v>0.9636469497545124</v>
       </c>
       <c r="K11">
-        <v>0.9821686799066793</v>
+        <v>0.9821686799066779</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.9084992377582513</v>
+        <v>0.9084992377582499</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9284342978049582</v>
+        <v>0.9284342978049607</v>
       </c>
       <c r="D12">
-        <v>0.9646598974251525</v>
+        <v>0.9646598974251546</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.8874586302004862</v>
+        <v>0.887458630200489</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020704811331056</v>
+        <v>1.020704811331057</v>
       </c>
       <c r="J12">
-        <v>0.9616097618512462</v>
+        <v>0.9616097618512482</v>
       </c>
       <c r="K12">
-        <v>0.9804969910719413</v>
+        <v>0.9804969910719434</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9051140640921895</v>
+        <v>0.9051140640921922</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290091601926627</v>
+        <v>0.9290091601926622</v>
       </c>
       <c r="D13">
-        <v>0.9650759478396106</v>
+        <v>0.96507594783961</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368228</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.8882636274365671</v>
+        <v>0.8882636274365668</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.020891499121174</v>
       </c>
       <c r="J13">
-        <v>0.9620495605318614</v>
+        <v>0.9620495605318609</v>
       </c>
       <c r="K13">
-        <v>0.980857880604499</v>
+        <v>0.9808578806044985</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9058452696019942</v>
+        <v>0.9058452696019937</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9308790660397389</v>
+        <v>0.9308790660397401</v>
       </c>
       <c r="D14">
-        <v>0.9664296416612466</v>
+        <v>0.9664296416612473</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.8908798441511738</v>
+        <v>0.8908798441511753</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021498233009681</v>
       </c>
       <c r="J14">
-        <v>0.9634798113186811</v>
+        <v>0.9634798113186823</v>
       </c>
       <c r="K14">
-        <v>0.9820315271639589</v>
+        <v>0.9820315271639599</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764513</v>
       </c>
       <c r="M14">
-        <v>0.9082216800202408</v>
+        <v>0.9082216800202422</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9320209154846837</v>
+        <v>0.9320209154846819</v>
       </c>
       <c r="D15">
-        <v>0.9672565429345249</v>
+        <v>0.9672565429345227</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.8924757466466439</v>
+        <v>0.8924757466466418</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021868330470576</v>
+        <v>1.021868330470575</v>
       </c>
       <c r="J15">
-        <v>0.9643529425003443</v>
+        <v>0.9643529425003423</v>
       </c>
       <c r="K15">
-        <v>0.9827480144241475</v>
+        <v>0.9827480144241456</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.909671305315115</v>
+        <v>0.9096713053151131</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9385182255011609</v>
+        <v>0.9385182255011608</v>
       </c>
       <c r="D16">
         <v>0.9719655562027616</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9015335479761095</v>
+        <v>0.9015335479761096</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1.02396808494392</v>
       </c>
       <c r="J16">
-        <v>0.9693175381574418</v>
+        <v>0.9693175381574416</v>
       </c>
       <c r="K16">
         <v>0.986821897502157</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9424707497620658</v>
+        <v>0.9424707497620655</v>
       </c>
       <c r="D17">
-        <v>0.9748332150575957</v>
+        <v>0.9748332150575955</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9070255072642912</v>
+        <v>0.9070255072642907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02523992181287</v>
+        <v>1.025239921812869</v>
       </c>
       <c r="J17">
-        <v>0.9723344725020997</v>
+        <v>0.9723344725020994</v>
       </c>
       <c r="K17">
-        <v>0.989297383293733</v>
+        <v>0.9892973832937325</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9228869445353141</v>
+        <v>0.9228869445353137</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9447347346450379</v>
+        <v>0.944734734645039</v>
       </c>
       <c r="D18">
-        <v>0.9764767609020617</v>
+        <v>0.9764767609020629</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9101654610286914</v>
+        <v>0.9101654610286919</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025966393385013</v>
+        <v>1.025966393385014</v>
       </c>
       <c r="J18">
-        <v>0.9740614121825338</v>
+        <v>0.9740614121825348</v>
       </c>
       <c r="K18">
-        <v>0.9907142775586244</v>
+        <v>0.9907142775586255</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9257386836379605</v>
+        <v>0.9257386836379612</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9454999166915012</v>
+        <v>0.9454999166915017</v>
       </c>
       <c r="D19">
-        <v>0.977032400261032</v>
+        <v>0.9770324002610323</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680091</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9112257805259708</v>
+        <v>0.9112257805259711</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.026211577659746</v>
       </c>
       <c r="J19">
-        <v>0.9746448895599793</v>
+        <v>0.9746448895599797</v>
       </c>
       <c r="K19">
-        <v>0.9911929771125745</v>
+        <v>0.9911929771125747</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812711</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9267016386813329</v>
+        <v>0.9267016386813336</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9420510307057089</v>
+        <v>0.9420510307057093</v>
       </c>
       <c r="D20">
-        <v>0.9745285948272336</v>
+        <v>0.9745285948272335</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.906442936161201</v>
+        <v>0.9064429361612015</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025105075644523</v>
+        <v>1.025105075644524</v>
       </c>
       <c r="J20">
-        <v>0.9720142230685995</v>
+        <v>0.9720142230685999</v>
       </c>
       <c r="K20">
-        <v>0.9890346195298276</v>
+        <v>0.9890346195298275</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9223578304631442</v>
+        <v>0.9223578304631448</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9303305829881536</v>
+        <v>0.9303305829881527</v>
       </c>
       <c r="D21">
-        <v>0.9660325163483814</v>
+        <v>0.9660325163483808</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.890112808835586</v>
+        <v>0.8901128088355852</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021320348862543</v>
       </c>
       <c r="J21">
-        <v>0.9630603397217562</v>
+        <v>0.9630603397217552</v>
       </c>
       <c r="K21">
-        <v>0.9816873121558066</v>
+        <v>0.9816873121558062</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9075249505837286</v>
+        <v>0.907524950583728</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9225209199539282</v>
+        <v>0.9225209199539275</v>
       </c>
       <c r="D22">
-        <v>0.960383354722083</v>
+        <v>0.9603833547220828</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8791581407677683</v>
+        <v>0.8791581407677679</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018780276668527</v>
+        <v>1.018780276668526</v>
       </c>
       <c r="J22">
-        <v>0.9570831101352117</v>
+        <v>0.9570831101352113</v>
       </c>
       <c r="K22">
-        <v>0.976782710035821</v>
+        <v>0.9767827100358204</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8975747187780566</v>
+        <v>0.8975747187780562</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9267064360586654</v>
+        <v>0.9267064360586669</v>
       </c>
       <c r="D23">
-        <v>0.9634097031282082</v>
+        <v>0.9634097031282093</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8850370389332606</v>
+        <v>0.8850370389332618</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020143242199102</v>
       </c>
       <c r="J23">
-        <v>0.9602875849998984</v>
+        <v>0.9602875849998996</v>
       </c>
       <c r="K23">
-        <v>0.9794120563015535</v>
+        <v>0.9794120563015546</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9029144729212919</v>
+        <v>0.9029144729212931</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1260,31 +1260,31 @@
         <v>0.9422408111026247</v>
       </c>
       <c r="D24">
-        <v>0.9746663290963058</v>
+        <v>0.9746663290963059</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9067063697484913</v>
+        <v>0.9067063697484912</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025166054093549</v>
+        <v>1.025166054093548</v>
       </c>
       <c r="J24">
-        <v>0.9721590307892006</v>
+        <v>0.9721590307892004</v>
       </c>
       <c r="K24">
         <v>0.9891534342200092</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9225970918493585</v>
+        <v>0.9225970918493586</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.958659766087763</v>
+        <v>0.9586597660877635</v>
       </c>
       <c r="D25">
-        <v>0.9865994927216103</v>
+        <v>0.9865994927216106</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9293946910117701</v>
+        <v>0.9293946910117704</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030397898576798</v>
       </c>
       <c r="J25">
-        <v>0.9846632413015203</v>
+        <v>0.9846632413015204</v>
       </c>
       <c r="K25">
-        <v>0.9994094584048882</v>
+        <v>0.9994094584048883</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9431977776793342</v>
+        <v>0.9431977776793345</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.970721847843978</v>
+        <v>0.9707450806944127</v>
       </c>
       <c r="D2">
-        <v>0.9953836221972221</v>
+        <v>0.9954015487651509</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9459530047076601</v>
+        <v>0.9459775828748911</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034175869581734</v>
+        <v>1.034184961859086</v>
       </c>
       <c r="J2">
-        <v>0.993814975220314</v>
+        <v>0.9938374537481672</v>
       </c>
       <c r="K2">
-        <v>1.006907647370745</v>
+        <v>1.006925321263209</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9582204400586175</v>
+        <v>0.9582446238290863</v>
+      </c>
+      <c r="N2">
+        <v>0.9978865813592516</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9789797916338218</v>
+        <v>0.9789971442449046</v>
       </c>
       <c r="D3">
-        <v>1.001403198909802</v>
+        <v>1.001416672924818</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9572479101578216</v>
+        <v>0.9572661530655934</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036722620140385</v>
+        <v>1.036729462624396</v>
       </c>
       <c r="J3">
-        <v>1.000060366159083</v>
+        <v>1.000077217464189</v>
       </c>
       <c r="K3">
-        <v>1.012018156973803</v>
+        <v>1.012031459192237</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.968458704095762</v>
+        <v>0.968476686473577</v>
+      </c>
+      <c r="N3">
+        <v>1.002161016439383</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9841182962712326</v>
+        <v>0.9841320859770184</v>
       </c>
       <c r="D4">
-        <v>1.005150341295454</v>
+        <v>1.00516111002418</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9642627317688875</v>
+        <v>0.9642771755644022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038288392996062</v>
+        <v>1.038293866039623</v>
       </c>
       <c r="J4">
-        <v>1.003937171231138</v>
+        <v>1.003950592555597</v>
       </c>
       <c r="K4">
-        <v>1.015187001146029</v>
+        <v>1.015197641553506</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9748125087686466</v>
+        <v>0.9748267616693536</v>
+      </c>
+      <c r="N4">
+        <v>1.004813123527944</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9862328946064391</v>
+        <v>0.9862452381259614</v>
       </c>
       <c r="D5">
-        <v>1.00669255359061</v>
+        <v>1.006702222688064</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9671469634825327</v>
+        <v>0.9671598734304946</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038928108715202</v>
+        <v>1.038933024537625</v>
       </c>
       <c r="J5">
-        <v>1.005530280882673</v>
+        <v>1.005542305561106</v>
       </c>
       <c r="K5">
-        <v>1.016488279980615</v>
+        <v>1.0164978371733</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9774237364330124</v>
+        <v>0.9774364813221713</v>
+      </c>
+      <c r="N5">
+        <v>1.005902652720438</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9865853618151024</v>
+        <v>0.9865974653784503</v>
       </c>
       <c r="D6">
-        <v>1.006949620412913</v>
+        <v>1.006959106970445</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9676275868295434</v>
+        <v>0.9676402427272046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039034463361901</v>
+        <v>1.039039286651666</v>
       </c>
       <c r="J6">
-        <v>1.005795690444881</v>
+        <v>1.005807483140016</v>
       </c>
       <c r="K6">
-        <v>1.016705015752798</v>
+        <v>1.016714393059679</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9778587932211811</v>
+        <v>0.9778712882123201</v>
+      </c>
+      <c r="N6">
+        <v>1.006084147870625</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9841467266822012</v>
+        <v>0.9841604968685582</v>
       </c>
       <c r="D7">
-        <v>1.005171075537212</v>
+        <v>1.005181829429928</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9643015188369002</v>
+        <v>0.9643159418985954</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038297012340578</v>
+        <v>1.038302477868493</v>
       </c>
       <c r="J7">
-        <v>1.003958599362052</v>
+        <v>1.003972001852728</v>
       </c>
       <c r="K7">
-        <v>1.015204507686968</v>
+        <v>1.015215133484791</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9748476294083395</v>
+        <v>0.9748618619332241</v>
+      </c>
+      <c r="N7">
+        <v>1.004827779498816</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.973557290323488</v>
+        <v>0.9735784817014328</v>
       </c>
       <c r="D8">
-        <v>0.9974500845770716</v>
+        <v>0.9974664670923578</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9498345425517742</v>
+        <v>0.9498569118666793</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035054288255297</v>
+        <v>1.03506260090872</v>
       </c>
       <c r="J8">
-        <v>0.9959613701135626</v>
+        <v>0.9959818997338549</v>
       </c>
       <c r="K8">
-        <v>1.008664707234617</v>
+        <v>1.008680866412434</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9617398271759728</v>
+        <v>0.9617618512729679</v>
+      </c>
+      <c r="N8">
+        <v>0.9993558575973791</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9531484839310412</v>
+        <v>0.9531849542081793</v>
       </c>
       <c r="D9">
-        <v>0.9825904395892142</v>
+        <v>0.9826183310900503</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9218002811214057</v>
+        <v>0.9218394382748921</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028652046750677</v>
+        <v>1.028666157645204</v>
       </c>
       <c r="J9">
-        <v>0.9804715391279438</v>
+        <v>0.9805065351564829</v>
       </c>
       <c r="K9">
-        <v>0.9959724346077614</v>
+        <v>0.9959998526702277</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9363037505684284</v>
+        <v>0.9363421226889128</v>
+      </c>
+      <c r="N9">
+        <v>0.988747834917923</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9380657410483491</v>
+        <v>0.9381145098354836</v>
       </c>
       <c r="D10">
-        <v>0.9716374084004151</v>
+        <v>0.9716744826469844</v>
       </c>
       <c r="E10">
         <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.9009039776238317</v>
+        <v>0.9009571060995198</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023822209283668</v>
+        <v>1.02384092756332</v>
       </c>
       <c r="J10">
-        <v>0.9689720022570607</v>
+        <v>0.9690184485845615</v>
       </c>
       <c r="K10">
-        <v>0.9865383630323978</v>
+        <v>0.9865747156957522</v>
       </c>
       <c r="L10">
         <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.9173269197020486</v>
+        <v>0.9173787846025211</v>
+      </c>
+      <c r="N10">
+        <v>0.980867370034868</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.931097624715873</v>
+        <v>0.9311524225266329</v>
       </c>
       <c r="D11">
-        <v>0.9665879008932636</v>
+        <v>0.9666294498141054</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.8911854095392491</v>
+        <v>0.8912455479744291</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021569096372627</v>
+        <v>1.021590054584087</v>
       </c>
       <c r="J11">
-        <v>0.9636469497545124</v>
+        <v>0.9636989493564578</v>
       </c>
       <c r="K11">
-        <v>0.9821686799066779</v>
+        <v>0.9822093721714962</v>
       </c>
       <c r="L11">
         <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.9084992377582499</v>
+        <v>0.9085578357521558</v>
+      </c>
+      <c r="N11">
+        <v>0.9772173526245532</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9284342978049607</v>
+        <v>0.9284914647376956</v>
       </c>
       <c r="D12">
-        <v>0.9646598974251546</v>
+        <v>0.9647031998383914</v>
       </c>
       <c r="E12">
         <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.887458630200489</v>
+        <v>0.887521553392283</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020704811331057</v>
+        <v>1.020726646453991</v>
       </c>
       <c r="J12">
-        <v>0.9616097618512482</v>
+        <v>0.9616639332585182</v>
       </c>
       <c r="K12">
-        <v>0.9804969910719434</v>
+        <v>0.9805393815299045</v>
       </c>
       <c r="L12">
         <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9051140640921922</v>
+        <v>0.9051753302596096</v>
+      </c>
+      <c r="N12">
+        <v>0.9758208932160874</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290091601926622</v>
+        <v>0.9290658126069434</v>
       </c>
       <c r="D13">
-        <v>0.96507594783961</v>
+        <v>0.9651188696665952</v>
       </c>
       <c r="E13">
         <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.8882636274365668</v>
+        <v>0.8883259443754281</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020891499121174</v>
+        <v>1.020913143954533</v>
       </c>
       <c r="J13">
-        <v>0.9620495605318609</v>
+        <v>0.9621032607625047</v>
       </c>
       <c r="K13">
-        <v>0.9808578806044985</v>
+        <v>0.9808999025890196</v>
       </c>
       <c r="L13">
         <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9058452696019937</v>
+        <v>0.9059059552122107</v>
+      </c>
+      <c r="N13">
+        <v>0.9761223711441337</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9308790660397401</v>
+        <v>0.9309340568726175</v>
       </c>
       <c r="D14">
-        <v>0.9664296416612473</v>
+        <v>0.9664713335483927</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.8908798441511753</v>
+        <v>0.8909402088275753</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021498233009681</v>
+        <v>1.02151926273526</v>
       </c>
       <c r="J14">
-        <v>0.9634798113186823</v>
+        <v>0.9635319880826532</v>
       </c>
       <c r="K14">
-        <v>0.9820315271639599</v>
+        <v>0.9820723579353234</v>
       </c>
       <c r="L14">
         <v>0.9490745509764513</v>
       </c>
       <c r="M14">
-        <v>0.9082216800202422</v>
+        <v>0.9082804949223454</v>
+      </c>
+      <c r="N14">
+        <v>0.977102783358577</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9320209154846819</v>
+        <v>0.9320749005863872</v>
       </c>
       <c r="D15">
-        <v>0.9672565429345227</v>
+        <v>0.9672974897047323</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.8924757466466418</v>
+        <v>0.8925349337521979</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021868330470575</v>
+        <v>1.02188898744176</v>
       </c>
       <c r="J15">
-        <v>0.9643529425003423</v>
+        <v>0.9644041957479219</v>
       </c>
       <c r="K15">
-        <v>0.9827480144241456</v>
+        <v>0.9827881232257759</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9096713053151131</v>
+        <v>0.9097289909546071</v>
+      </c>
+      <c r="N15">
+        <v>0.9777012900604495</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9385182255011608</v>
+        <v>0.93856661087409</v>
       </c>
       <c r="D16">
-        <v>0.9719655562027616</v>
+        <v>0.9720023452839018</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9015335479761096</v>
+        <v>0.9015862343220894</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02396808494392</v>
+        <v>1.023986660365732</v>
       </c>
       <c r="J16">
-        <v>0.9693175381574416</v>
+        <v>0.9693636300216114</v>
       </c>
       <c r="K16">
-        <v>0.986821897502157</v>
+        <v>0.9868579733053311</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9178987604883702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9179501999129982</v>
+      </c>
+      <c r="N16">
+        <v>0.9811042011548197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9424707497620655</v>
+        <v>0.9425158257819082</v>
       </c>
       <c r="D17">
-        <v>0.9748332150575955</v>
+        <v>0.9748675398155514</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9070255072642907</v>
+        <v>0.9070743953462319</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025239921812869</v>
+        <v>1.025257262124627</v>
       </c>
       <c r="J17">
-        <v>0.9723344725020994</v>
+        <v>0.972377498291042</v>
       </c>
       <c r="K17">
-        <v>0.9892973832937325</v>
+        <v>0.9893310649871557</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9228869445353137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9229347247520738</v>
+      </c>
+      <c r="N17">
+        <v>0.9831719258711682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.944734734645039</v>
+        <v>0.9447779463383008</v>
       </c>
       <c r="D18">
-        <v>0.9764767609020629</v>
+        <v>0.9765096950293768</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9101654610286919</v>
+        <v>0.910212223306494</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025966393385014</v>
+        <v>1.025983036254953</v>
       </c>
       <c r="J18">
-        <v>0.9740614121825348</v>
+        <v>0.9741027054291882</v>
       </c>
       <c r="K18">
-        <v>0.9907142775586255</v>
+        <v>0.9907466069889743</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9257386836379612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9257844127114546</v>
+      </c>
+      <c r="N18">
+        <v>0.9843554428387998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9454999166915017</v>
+        <v>0.9455425032685568</v>
       </c>
       <c r="D19">
-        <v>0.9770324002610323</v>
+        <v>0.9770648677252274</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9112257805259711</v>
+        <v>0.9112718322366066</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026211577659746</v>
+        <v>1.026227986407814</v>
       </c>
       <c r="J19">
-        <v>0.9746448895599797</v>
+        <v>0.9746856010197481</v>
       </c>
       <c r="K19">
-        <v>0.9911929771125747</v>
+        <v>0.9912248525486751</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9267016386813336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9267466816325869</v>
+      </c>
+      <c r="N19">
+        <v>0.9847553004234808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,75 +1159,81 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9420510307057093</v>
+        <v>0.9420964548140889</v>
       </c>
       <c r="D20">
-        <v>0.9745285948272335</v>
+        <v>0.9745631790422034</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9064429361612015</v>
+        <v>0.9064922222591776</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025105075644524</v>
+        <v>1.025122546044116</v>
       </c>
       <c r="J20">
-        <v>0.9720142230685999</v>
+        <v>0.972057571917894</v>
       </c>
       <c r="K20">
-        <v>0.9890346195298275</v>
+        <v>0.9890685534207581</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9223578304631448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9224059944634664</v>
+      </c>
+      <c r="N20">
+        <v>0.9829524437459867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9303305829881527</v>
+        <v>0.930386059306361</v>
       </c>
       <c r="D21">
-        <v>0.9660325163483808</v>
+        <v>0.9660745677413931</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.8901128088355852</v>
+        <v>0.8901737430531029</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021320348862543</v>
+        <v>1.021341558405106</v>
       </c>
       <c r="J21">
-        <v>0.9630603397217552</v>
+        <v>0.9631129619099893</v>
       </c>
       <c r="K21">
-        <v>0.9816873121558062</v>
+        <v>0.9817284911798488</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.907524950583728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9075843114231695</v>
+      </c>
+      <c r="N21">
+        <v>0.9768152447547528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9225209199539275</v>
+        <v>0.9225834846459601</v>
       </c>
       <c r="D22">
-        <v>0.9603833547220828</v>
+        <v>0.9604306421064677</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8791581407677679</v>
+        <v>0.8792274738760857</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018780276668526</v>
+        <v>1.018804102968051</v>
       </c>
       <c r="J22">
-        <v>0.9570831101352113</v>
+        <v>0.9571422085201995</v>
       </c>
       <c r="K22">
-        <v>0.9767827100358204</v>
+        <v>0.9768289550548324</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8975747187780562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8976421125985172</v>
+      </c>
+      <c r="N22">
+        <v>0.9727178449837044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9267064360586669</v>
+        <v>0.9267651601622715</v>
       </c>
       <c r="D23">
-        <v>0.9634097031282093</v>
+        <v>0.9634541565895621</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8850370389332618</v>
+        <v>0.8851018019254665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020143242199102</v>
+        <v>1.020165652704459</v>
       </c>
       <c r="J23">
-        <v>0.9602875849998996</v>
+        <v>0.960343180765646</v>
       </c>
       <c r="K23">
-        <v>0.9794120563015546</v>
+        <v>0.9794555608058895</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9029144729212931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9029774998437899</v>
+      </c>
+      <c r="N23">
+        <v>0.9749145445790197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9422408111026247</v>
+        <v>0.942286077722663</v>
       </c>
       <c r="D24">
-        <v>0.9746663290963059</v>
+        <v>0.9747007959304876</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9067063697484912</v>
+        <v>0.9067554757257137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025166054093548</v>
+        <v>1.025183465641628</v>
       </c>
       <c r="J24">
-        <v>0.9721590307892004</v>
+        <v>0.9722022334902627</v>
       </c>
       <c r="K24">
-        <v>0.9891534342200092</v>
+        <v>0.9891872540183333</v>
       </c>
       <c r="L24">
         <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9225970918493586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9226450821796623</v>
+      </c>
+      <c r="N24">
+        <v>0.9830516875983764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9586597660877635</v>
+        <v>0.9586919694621187</v>
       </c>
       <c r="D25">
-        <v>0.9865994927216106</v>
+        <v>0.9866241812184195</v>
       </c>
       <c r="E25">
         <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9293946910117704</v>
+        <v>0.9294290989110346</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030397898576798</v>
+        <v>1.030410398649042</v>
       </c>
       <c r="J25">
-        <v>0.9846632413015204</v>
+        <v>0.9846942248598066</v>
       </c>
       <c r="K25">
-        <v>0.9994094584048883</v>
+        <v>0.9994337501868071</v>
       </c>
       <c r="L25">
         <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9431977776793345</v>
+        <v>0.9432315402503409</v>
+      </c>
+      <c r="N25">
+        <v>0.9916194378341154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9707450806944127</v>
+        <v>1.003276485625404</v>
       </c>
       <c r="D2">
-        <v>0.9954015487651509</v>
+        <v>1.021153959744139</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9980908160279961</v>
       </c>
       <c r="F2">
-        <v>0.9459775828748911</v>
+        <v>1.004304480497701</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034184961859086</v>
+        <v>1.046696704827646</v>
       </c>
       <c r="J2">
-        <v>0.9938374537481672</v>
+        <v>1.025359637269673</v>
       </c>
       <c r="K2">
-        <v>1.006925321263209</v>
+        <v>1.032326247583151</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.009576813053142</v>
       </c>
       <c r="M2">
-        <v>0.9582446238290863</v>
+        <v>1.015704171047758</v>
       </c>
       <c r="N2">
-        <v>0.9978865813592516</v>
+        <v>1.02681576556499</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9789971442449046</v>
+        <v>1.012270270508534</v>
       </c>
       <c r="D3">
-        <v>1.001416672924818</v>
+        <v>1.028167139467819</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.007185805381036</v>
       </c>
       <c r="F3">
-        <v>0.9572661530655934</v>
+        <v>1.014037731131681</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036729462624396</v>
+        <v>1.050058789867756</v>
       </c>
       <c r="J3">
-        <v>1.000077217464189</v>
+        <v>1.032431934212105</v>
       </c>
       <c r="K3">
-        <v>1.012031459192237</v>
+        <v>1.038451868070215</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.017727560769149</v>
       </c>
       <c r="M3">
-        <v>0.968476686473577</v>
+        <v>1.024494092861481</v>
       </c>
       <c r="N3">
-        <v>1.002161016439383</v>
+        <v>1.033898105980284</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9841320859770184</v>
+        <v>1.017870971253272</v>
       </c>
       <c r="D4">
-        <v>1.00516111002418</v>
+        <v>1.032536222696023</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.012836015867356</v>
       </c>
       <c r="F4">
-        <v>0.9642771755644022</v>
+        <v>1.020090895331349</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038293866039623</v>
+        <v>1.052135830579418</v>
       </c>
       <c r="J4">
-        <v>1.003950592555597</v>
+        <v>1.036828325642445</v>
       </c>
       <c r="K4">
-        <v>1.015197641553506</v>
+        <v>1.042257203954273</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.022781951145177</v>
       </c>
       <c r="M4">
-        <v>0.9748267616693536</v>
+        <v>1.029952740369596</v>
       </c>
       <c r="N4">
-        <v>1.004813123527944</v>
+        <v>1.038300740790729</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9862452381259614</v>
+        <v>1.020176820607986</v>
       </c>
       <c r="D5">
-        <v>1.006702222688064</v>
+        <v>1.034335292324722</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.015159271601983</v>
       </c>
       <c r="F5">
-        <v>0.9671598734304946</v>
+        <v>1.022581361869541</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038933024537625</v>
+        <v>1.052986910394179</v>
       </c>
       <c r="J5">
-        <v>1.005542305561106</v>
+        <v>1.038636453535342</v>
       </c>
       <c r="K5">
-        <v>1.0164978371733</v>
+        <v>1.043821587932633</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.024858015486172</v>
       </c>
       <c r="M5">
-        <v>0.9774364813221713</v>
+        <v>1.032196714758259</v>
       </c>
       <c r="N5">
-        <v>1.005902652720438</v>
+        <v>1.040111436432629</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9865974653784503</v>
+        <v>1.020561228203629</v>
       </c>
       <c r="D6">
-        <v>1.006959106970445</v>
+        <v>1.034635227853847</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.015546413002844</v>
       </c>
       <c r="F6">
-        <v>0.9676402427272046</v>
+        <v>1.022996455982762</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039039286651666</v>
+        <v>1.053128553478909</v>
       </c>
       <c r="J6">
-        <v>1.005807483140016</v>
+        <v>1.038937773242111</v>
       </c>
       <c r="K6">
-        <v>1.016714393059679</v>
+        <v>1.044082248543239</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.025203836230728</v>
       </c>
       <c r="M6">
-        <v>0.9778712882123201</v>
+        <v>1.032570613980341</v>
       </c>
       <c r="N6">
-        <v>1.006084147870625</v>
+        <v>1.040413184047943</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9841604968685582</v>
+        <v>1.017901968825464</v>
       </c>
       <c r="D7">
-        <v>1.005181829429928</v>
+        <v>1.032560406658354</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.012867258907435</v>
       </c>
       <c r="F7">
-        <v>0.9643159418985954</v>
+        <v>1.020124380995059</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038302477868493</v>
+        <v>1.052147287808381</v>
       </c>
       <c r="J7">
-        <v>1.003972001852728</v>
+        <v>1.036852639916171</v>
       </c>
       <c r="K7">
-        <v>1.015215133484791</v>
+        <v>1.042278243211886</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.022809878688227</v>
       </c>
       <c r="M7">
-        <v>0.9748618619332241</v>
+        <v>1.029982919308695</v>
       </c>
       <c r="N7">
-        <v>1.004827779498816</v>
+        <v>1.038325089593511</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9735784817014328</v>
+        <v>1.006363673677996</v>
       </c>
       <c r="D8">
-        <v>0.9974664670923578</v>
+        <v>1.023560825724345</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.001215786132534</v>
       </c>
       <c r="F8">
-        <v>0.9498569118666793</v>
+        <v>1.007647370398225</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03506260090872</v>
+        <v>1.047854257163478</v>
       </c>
       <c r="J8">
-        <v>0.9959818997338549</v>
+        <v>1.027788876063812</v>
       </c>
       <c r="K8">
-        <v>1.008680866412434</v>
+        <v>1.034430834866125</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.012379313969847</v>
       </c>
       <c r="M8">
-        <v>0.9617618512729679</v>
+        <v>1.018724740108575</v>
       </c>
       <c r="N8">
-        <v>0.9993558575973791</v>
+        <v>1.029248454156855</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9531849542081793</v>
+        <v>0.9841619530854818</v>
       </c>
       <c r="D9">
-        <v>0.9826183310900503</v>
+        <v>1.006266070594426</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9786695176027592</v>
       </c>
       <c r="F9">
-        <v>0.9218394382748921</v>
+        <v>0.9835583268533263</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028666157645204</v>
+        <v>1.039459321828832</v>
       </c>
       <c r="J9">
-        <v>0.9805065351564829</v>
+        <v>1.010286663136322</v>
       </c>
       <c r="K9">
-        <v>0.9959998526702277</v>
+        <v>1.019258296697343</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9921184145466578</v>
       </c>
       <c r="M9">
-        <v>0.9363421226889128</v>
+        <v>0.9969239129379002</v>
       </c>
       <c r="N9">
-        <v>0.988747834917923</v>
+        <v>1.011721386079476</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9381145098354836</v>
+        <v>0.9677804006076833</v>
       </c>
       <c r="D10">
-        <v>0.9716744826469844</v>
+        <v>0.9935325711944651</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.9619204216397523</v>
       </c>
       <c r="F10">
-        <v>0.9009571060995198</v>
+        <v>0.9657028110106195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02384092756332</v>
+        <v>1.033177704744989</v>
       </c>
       <c r="J10">
-        <v>0.9690184485845615</v>
+        <v>0.9973333507786355</v>
       </c>
       <c r="K10">
-        <v>0.9865747156957522</v>
+        <v>1.008019587216569</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9770130224368149</v>
       </c>
       <c r="M10">
-        <v>0.9173787846025211</v>
+        <v>0.9807202102425352</v>
       </c>
       <c r="N10">
-        <v>0.980867370034868</v>
+        <v>0.9987496785324754</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9311524225266329</v>
+        <v>0.960219601107239</v>
       </c>
       <c r="D11">
-        <v>0.9666294498141054</v>
+        <v>0.9876654036061269</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9541553424047561</v>
       </c>
       <c r="F11">
-        <v>0.8912455479744291</v>
+        <v>0.9574347878679901</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021590054584087</v>
+        <v>1.030258967345406</v>
       </c>
       <c r="J11">
-        <v>0.9636989493564578</v>
+        <v>0.9913463259609401</v>
       </c>
       <c r="K11">
-        <v>0.9822093721714962</v>
+        <v>1.002823742409134</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9699968974979521</v>
       </c>
       <c r="M11">
-        <v>0.9085578357521558</v>
+        <v>0.9732066852296343</v>
       </c>
       <c r="N11">
-        <v>0.9772173526245532</v>
+        <v>0.9927541514528172</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9284914647376956</v>
+        <v>0.9573310349083728</v>
       </c>
       <c r="D12">
-        <v>0.9647031998383914</v>
+        <v>0.9854257102630857</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9511826991213687</v>
       </c>
       <c r="F12">
-        <v>0.887521553392283</v>
+        <v>0.954271166683361</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020726646453991</v>
+        <v>1.029141080574137</v>
       </c>
       <c r="J12">
-        <v>0.9616639332585182</v>
+        <v>0.9890578173657553</v>
       </c>
       <c r="K12">
-        <v>0.9805393815299045</v>
+        <v>1.000837560577646</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.967308986667033</v>
       </c>
       <c r="M12">
-        <v>0.9051753302596096</v>
+        <v>0.9703302240723628</v>
       </c>
       <c r="N12">
-        <v>0.9758208932160874</v>
+        <v>0.990462392912932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290658126069434</v>
+        <v>0.9579544512575026</v>
       </c>
       <c r="D13">
-        <v>0.9651188696665952</v>
+        <v>0.9859089970193498</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.9518245482504062</v>
       </c>
       <c r="F13">
-        <v>0.8883259443754281</v>
+        <v>0.9549541802088953</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020913143954533</v>
+        <v>1.029382468952583</v>
       </c>
       <c r="J13">
-        <v>0.9621032607625047</v>
+        <v>0.9895517804612339</v>
       </c>
       <c r="K13">
-        <v>0.9808999025890196</v>
+        <v>1.001266270587439</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9678894463843639</v>
       </c>
       <c r="M13">
-        <v>0.9059059552122107</v>
+        <v>0.9709513096054038</v>
       </c>
       <c r="N13">
-        <v>0.9761223711441337</v>
+        <v>0.9909570574926646</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9309340568726175</v>
+        <v>0.9599825311611259</v>
       </c>
       <c r="D14">
-        <v>0.9664713335483927</v>
+        <v>0.987481548718436</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.953911499434132</v>
       </c>
       <c r="F14">
-        <v>0.8909402088275753</v>
+        <v>0.9571752472970736</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02151926273526</v>
+        <v>1.030167276040314</v>
       </c>
       <c r="J14">
-        <v>0.9635319880826532</v>
+        <v>0.9911585274955396</v>
       </c>
       <c r="K14">
-        <v>0.9820723579353234</v>
+        <v>1.002660754678691</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9697764510151023</v>
       </c>
       <c r="M14">
-        <v>0.9082804949223454</v>
+        <v>0.9729707338741727</v>
       </c>
       <c r="N14">
-        <v>0.977102783358577</v>
+        <v>0.9925660862920556</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9320749005863872</v>
+        <v>0.9612211456172662</v>
       </c>
       <c r="D15">
-        <v>0.9672974897047323</v>
+        <v>0.9884422077708619</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9551852511809599</v>
       </c>
       <c r="F15">
-        <v>0.8925349337521979</v>
+        <v>0.9585310613664556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02188898744176</v>
+        <v>1.030646221295599</v>
       </c>
       <c r="J15">
-        <v>0.9644041957479219</v>
+        <v>0.9921396663950312</v>
       </c>
       <c r="K15">
-        <v>0.9827881232257759</v>
+        <v>1.003512268446551</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.970927907225599</v>
       </c>
       <c r="M15">
-        <v>0.9097289909546071</v>
+        <v>0.9742032582492191</v>
       </c>
       <c r="N15">
-        <v>0.9777012900604495</v>
+        <v>0.9935486185213224</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.93856661087409</v>
+        <v>0.9682715360831949</v>
       </c>
       <c r="D16">
-        <v>0.9720023452839018</v>
+        <v>0.9939139218432215</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.962424050844516</v>
       </c>
       <c r="F16">
-        <v>0.9015862343220894</v>
+        <v>0.9662392696877732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023986660365732</v>
+        <v>1.033366910974657</v>
       </c>
       <c r="J16">
-        <v>0.9693636300216114</v>
+        <v>0.99772208889335</v>
       </c>
       <c r="K16">
-        <v>0.9868579733053311</v>
+        <v>1.008356934963482</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9774678063139864</v>
       </c>
       <c r="M16">
-        <v>0.9179501999129982</v>
+        <v>0.9812075035137333</v>
       </c>
       <c r="N16">
-        <v>0.9811042011548197</v>
+        <v>0.9991389686999017</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9425158257819082</v>
+        <v>0.972562514756117</v>
       </c>
       <c r="D17">
-        <v>0.9748675398155514</v>
+        <v>0.9972468660130417</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.966820239761809</v>
       </c>
       <c r="F17">
-        <v>0.9070743953462319</v>
+        <v>0.9709231473792511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025257262124627</v>
+        <v>1.035017815654819</v>
       </c>
       <c r="J17">
-        <v>0.972377498291042</v>
+        <v>1.001117496183651</v>
       </c>
       <c r="K17">
-        <v>0.9893310649871557</v>
+        <v>1.011303340457243</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9814361642860445</v>
       </c>
       <c r="M17">
-        <v>0.9229347247520738</v>
+        <v>0.9854609586310452</v>
       </c>
       <c r="N17">
-        <v>0.9831719258711682</v>
+        <v>1.002539197858014</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9447779463383008</v>
+        <v>0.9750210308115788</v>
       </c>
       <c r="D18">
-        <v>0.9765096950293768</v>
+        <v>0.9991573704766278</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9693358813898707</v>
       </c>
       <c r="F18">
-        <v>0.910212223306494</v>
+        <v>0.9736043358844566</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025983036254953</v>
+        <v>1.035961882516783</v>
       </c>
       <c r="J18">
-        <v>0.9741027054291882</v>
+        <v>1.003062099313667</v>
       </c>
       <c r="K18">
-        <v>0.9907466069889743</v>
+        <v>1.012990664672494</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9837057770610366</v>
       </c>
       <c r="M18">
-        <v>0.9257844127114546</v>
+        <v>0.9878947977527444</v>
       </c>
       <c r="N18">
-        <v>0.9843554428387998</v>
+        <v>1.004486562547523</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9455425032685568</v>
+        <v>0.9758520696155368</v>
       </c>
       <c r="D19">
-        <v>0.9770648677252274</v>
+        <v>0.9998033104656413</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9701857163582844</v>
       </c>
       <c r="F19">
-        <v>0.9112718322366066</v>
+        <v>0.9745102508660886</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026227986407814</v>
+        <v>1.036280688205357</v>
       </c>
       <c r="J19">
-        <v>0.9746856010197481</v>
+        <v>1.003719285751113</v>
       </c>
       <c r="K19">
-        <v>0.9912248525486751</v>
+        <v>1.013560878226728</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9844722937096693</v>
       </c>
       <c r="M19">
-        <v>0.9267466816325869</v>
+        <v>0.9887169748978755</v>
       </c>
       <c r="N19">
-        <v>0.9847553004234808</v>
+        <v>1.005144682265091</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9420964548140889</v>
+        <v>0.9721067847846719</v>
       </c>
       <c r="D20">
-        <v>0.9745631790422034</v>
+        <v>0.9968927902125273</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9663536695599115</v>
       </c>
       <c r="F20">
-        <v>0.9064922222591776</v>
+        <v>0.970425948153985</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025122546044116</v>
+        <v>1.034842667359</v>
       </c>
       <c r="J20">
-        <v>0.972057571917894</v>
+        <v>1.000756964026718</v>
       </c>
       <c r="K20">
-        <v>0.9890685534207581</v>
+        <v>1.010990497089221</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9810151262561909</v>
       </c>
       <c r="M20">
-        <v>0.9224059944634664</v>
+        <v>0.9850095494605288</v>
       </c>
       <c r="N20">
-        <v>0.9829524437459867</v>
+        <v>1.002178153704064</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.930386059306361</v>
+        <v>0.9593876148124711</v>
       </c>
       <c r="D21">
-        <v>0.9660745677413931</v>
+        <v>0.9870202037611124</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9532994865817415</v>
       </c>
       <c r="F21">
-        <v>0.8901737430531029</v>
+        <v>0.9565238608134539</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021341558405106</v>
+        <v>1.029937136452231</v>
       </c>
       <c r="J21">
-        <v>0.9631129619099893</v>
+        <v>0.9906872368355747</v>
       </c>
       <c r="K21">
-        <v>0.9817284911798488</v>
+        <v>1.002251726734452</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9692231283199768</v>
       </c>
       <c r="M21">
-        <v>0.9075843114231695</v>
+        <v>0.9723785263006942</v>
       </c>
       <c r="N21">
-        <v>0.9768152447547528</v>
+        <v>0.9920941263452955</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9225834846459601</v>
+        <v>0.9509202781958809</v>
       </c>
       <c r="D22">
-        <v>0.9604306421064677</v>
+        <v>0.9804588562361222</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9445730703109573</v>
       </c>
       <c r="F22">
-        <v>0.8792274738760857</v>
+        <v>0.9472398676168504</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018804102968051</v>
+        <v>1.026655073302189</v>
       </c>
       <c r="J22">
-        <v>0.9571422085201995</v>
+        <v>0.9839766889148029</v>
       </c>
       <c r="K22">
-        <v>0.9768289550548324</v>
+        <v>0.99642762734025</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9613287581777901</v>
       </c>
       <c r="M22">
-        <v>0.8976421125985172</v>
+        <v>0.9639343372343622</v>
       </c>
       <c r="N22">
-        <v>0.9727178449837044</v>
+        <v>0.9853740486767657</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9267651601622715</v>
+        <v>0.9554574457760437</v>
       </c>
       <c r="D23">
-        <v>0.9634541565895621</v>
+        <v>0.9839735585221014</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9492527536633828</v>
       </c>
       <c r="F23">
-        <v>0.8851018019254665</v>
+        <v>0.9522176797037717</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020165652704459</v>
+        <v>1.028415223261496</v>
       </c>
       <c r="J23">
-        <v>0.960343180765646</v>
+        <v>0.9875731132800238</v>
       </c>
       <c r="K23">
-        <v>0.9794555608058895</v>
+        <v>0.9995489818995549</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9655633378961639</v>
       </c>
       <c r="M23">
-        <v>0.9029774998437899</v>
+        <v>0.9684627012527863</v>
       </c>
       <c r="N23">
-        <v>0.9749145445790197</v>
+        <v>0.9889755803771009</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.942286077722663</v>
+        <v>0.9723128458341431</v>
       </c>
       <c r="D24">
-        <v>0.9747007959304876</v>
+        <v>0.9970528849572933</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9665646418476491</v>
       </c>
       <c r="F24">
-        <v>0.9067554757257137</v>
+        <v>0.9706507673117238</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025183465641628</v>
+        <v>1.034921867387711</v>
       </c>
       <c r="J24">
-        <v>0.9722022334902627</v>
+        <v>1.000919983293665</v>
       </c>
       <c r="K24">
-        <v>0.9891872540183333</v>
+        <v>1.011131953662269</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9812055137138823</v>
       </c>
       <c r="M24">
-        <v>0.9226450821796623</v>
+        <v>0.9852136666761208</v>
       </c>
       <c r="N24">
-        <v>0.9830516875983764</v>
+        <v>1.002341404477069</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9586919694621187</v>
+        <v>0.9901532136798565</v>
       </c>
       <c r="D25">
-        <v>0.9866241812184195</v>
+        <v>1.010929505949841</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9847706703825465</v>
       </c>
       <c r="F25">
-        <v>0.9294290989110346</v>
+        <v>0.9900704924965281</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030410398649042</v>
+        <v>1.041739770018369</v>
       </c>
       <c r="J25">
-        <v>0.9846942248598066</v>
+        <v>1.015016567124086</v>
       </c>
       <c r="K25">
-        <v>0.9994337501868071</v>
+        <v>1.023360491992203</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9976100940647311</v>
       </c>
       <c r="M25">
-        <v>0.9432315402503409</v>
+        <v>1.002824932123859</v>
       </c>
       <c r="N25">
-        <v>0.9916194378341154</v>
+        <v>1.01645800707343</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003276485625404</v>
+        <v>1.031577495360146</v>
       </c>
       <c r="D2">
-        <v>1.021153959744139</v>
+        <v>1.042984536378462</v>
       </c>
       <c r="E2">
-        <v>0.9980908160279961</v>
+        <v>1.029552873395074</v>
       </c>
       <c r="F2">
-        <v>1.004304480497701</v>
+        <v>1.040793406867058</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046696704827646</v>
+        <v>1.061547325874976</v>
       </c>
       <c r="J2">
-        <v>1.025359637269673</v>
+        <v>1.052853072880912</v>
       </c>
       <c r="K2">
-        <v>1.032326247583151</v>
+        <v>1.053875828728482</v>
       </c>
       <c r="L2">
-        <v>1.009576813053142</v>
+        <v>1.040615288450783</v>
       </c>
       <c r="M2">
-        <v>1.015704171047758</v>
+        <v>1.051712238577845</v>
       </c>
       <c r="N2">
-        <v>1.02681576556499</v>
+        <v>1.054348245008339</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012270270508534</v>
+        <v>1.037607211135559</v>
       </c>
       <c r="D3">
-        <v>1.028167139467819</v>
+        <v>1.047578722296507</v>
       </c>
       <c r="E3">
-        <v>1.007185805381036</v>
+        <v>1.035270182785649</v>
       </c>
       <c r="F3">
-        <v>1.014037731131681</v>
+        <v>1.046814524884518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050058789867756</v>
+        <v>1.064096291351701</v>
       </c>
       <c r="J3">
-        <v>1.032431934212105</v>
+        <v>1.057122645163086</v>
       </c>
       <c r="K3">
-        <v>1.038451868070215</v>
+        <v>1.057636973495552</v>
       </c>
       <c r="L3">
-        <v>1.017727560769149</v>
+        <v>1.045470819963433</v>
       </c>
       <c r="M3">
-        <v>1.024494092861481</v>
+        <v>1.05688149606568</v>
       </c>
       <c r="N3">
-        <v>1.033898105980284</v>
+        <v>1.05862388057288</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017870971253272</v>
+        <v>1.041407425520537</v>
       </c>
       <c r="D4">
-        <v>1.032536222696023</v>
+        <v>1.050476087161246</v>
       </c>
       <c r="E4">
-        <v>1.012836015867356</v>
+        <v>1.038884014465056</v>
       </c>
       <c r="F4">
-        <v>1.020090895331349</v>
+        <v>1.050619460640583</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052135830579418</v>
+        <v>1.065691463621989</v>
       </c>
       <c r="J4">
-        <v>1.036828325642445</v>
+        <v>1.059808124208895</v>
       </c>
       <c r="K4">
-        <v>1.042257203954273</v>
+        <v>1.060001212414498</v>
       </c>
       <c r="L4">
-        <v>1.022781951145177</v>
+        <v>1.048534744740968</v>
       </c>
       <c r="M4">
-        <v>1.029952740369596</v>
+        <v>1.060143053636412</v>
       </c>
       <c r="N4">
-        <v>1.038300740790729</v>
+        <v>1.061313173306963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020176820607986</v>
+        <v>1.04298187047638</v>
       </c>
       <c r="D5">
-        <v>1.034335292324722</v>
+        <v>1.051676865304796</v>
       </c>
       <c r="E5">
-        <v>1.015159271601983</v>
+        <v>1.040383711016572</v>
       </c>
       <c r="F5">
-        <v>1.022581361869541</v>
+        <v>1.052198252092693</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052986910394179</v>
+        <v>1.066349594987417</v>
       </c>
       <c r="J5">
-        <v>1.038636453535342</v>
+        <v>1.060919391431148</v>
       </c>
       <c r="K5">
-        <v>1.043821587932633</v>
+        <v>1.06097918791954</v>
       </c>
       <c r="L5">
-        <v>1.024858015486172</v>
+        <v>1.049804987445914</v>
       </c>
       <c r="M5">
-        <v>1.032196714758259</v>
+        <v>1.06149515809412</v>
       </c>
       <c r="N5">
-        <v>1.040111436432629</v>
+        <v>1.062426018656135</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020561228203629</v>
+        <v>1.04324489927854</v>
       </c>
       <c r="D6">
-        <v>1.034635227853847</v>
+        <v>1.051877489785376</v>
       </c>
       <c r="E6">
-        <v>1.015546413002844</v>
+        <v>1.04063439613115</v>
       </c>
       <c r="F6">
-        <v>1.022996455982762</v>
+        <v>1.052462146417853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053128553478909</v>
+        <v>1.066459380037465</v>
       </c>
       <c r="J6">
-        <v>1.038937773242111</v>
+        <v>1.061104961334522</v>
       </c>
       <c r="K6">
-        <v>1.044082248543239</v>
+        <v>1.061142477931427</v>
       </c>
       <c r="L6">
-        <v>1.025203836230728</v>
+        <v>1.050017244136722</v>
       </c>
       <c r="M6">
-        <v>1.032570613980341</v>
+        <v>1.061721089739627</v>
       </c>
       <c r="N6">
-        <v>1.040413184047943</v>
+        <v>1.062611852090057</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017901968825464</v>
+        <v>1.041428552936574</v>
       </c>
       <c r="D7">
-        <v>1.032560406658354</v>
+        <v>1.050492198908428</v>
       </c>
       <c r="E7">
-        <v>1.012867258907435</v>
+        <v>1.038904129127769</v>
       </c>
       <c r="F7">
-        <v>1.020124380995059</v>
+        <v>1.050640636981526</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052147287808381</v>
+        <v>1.065700306013475</v>
       </c>
       <c r="J7">
-        <v>1.036852639916171</v>
+        <v>1.059823041605349</v>
       </c>
       <c r="K7">
-        <v>1.042278243211886</v>
+        <v>1.060014341977443</v>
       </c>
       <c r="L7">
-        <v>1.022809878688227</v>
+        <v>1.048551786798983</v>
       </c>
       <c r="M7">
-        <v>1.029982919308695</v>
+        <v>1.060161194261946</v>
       </c>
       <c r="N7">
-        <v>1.038325089593511</v>
+        <v>1.061328111887831</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006363673677996</v>
+        <v>1.033636959816574</v>
       </c>
       <c r="D8">
-        <v>1.023560825724345</v>
+        <v>1.044553252651135</v>
       </c>
       <c r="E8">
-        <v>1.001215786132534</v>
+        <v>1.031503389188135</v>
       </c>
       <c r="F8">
-        <v>1.007647370398225</v>
+        <v>1.042847772753423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047854257163478</v>
+        <v>1.06242028544398</v>
       </c>
       <c r="J8">
-        <v>1.027788876063812</v>
+        <v>1.054312469336599</v>
       </c>
       <c r="K8">
-        <v>1.034430834866125</v>
+        <v>1.055161735271248</v>
       </c>
       <c r="L8">
-        <v>1.012379313969847</v>
+        <v>1.042272888063528</v>
       </c>
       <c r="M8">
-        <v>1.018724740108575</v>
+        <v>1.053477013937717</v>
       </c>
       <c r="N8">
-        <v>1.029248454156855</v>
+        <v>1.055809713974387</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9841619530854818</v>
+        <v>1.0190761385391</v>
       </c>
       <c r="D9">
-        <v>1.006266070594426</v>
+        <v>1.033473163334307</v>
       </c>
       <c r="E9">
-        <v>0.9786695176027592</v>
+        <v>1.017760352837264</v>
       </c>
       <c r="F9">
-        <v>0.9835583268533263</v>
+        <v>1.028368510818245</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039459321828832</v>
+        <v>1.056201573846774</v>
       </c>
       <c r="J9">
-        <v>1.010286663136322</v>
+        <v>1.043972797249334</v>
       </c>
       <c r="K9">
-        <v>1.019258296697343</v>
+        <v>1.046045541558935</v>
       </c>
       <c r="L9">
-        <v>0.9921184145466578</v>
+        <v>1.030571705803677</v>
       </c>
       <c r="M9">
-        <v>0.9969239129379002</v>
+        <v>1.04101750517051</v>
       </c>
       <c r="N9">
-        <v>1.011721386079476</v>
+        <v>1.045455358366781</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9677804006076833</v>
+        <v>1.008726793752951</v>
       </c>
       <c r="D10">
-        <v>0.9935325711944651</v>
+        <v>1.025615471067556</v>
       </c>
       <c r="E10">
-        <v>0.9619204216397523</v>
+        <v>1.008055983597348</v>
       </c>
       <c r="F10">
-        <v>0.9657028110106195</v>
+        <v>1.018137825847495</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033177704744989</v>
+        <v>1.051723957068303</v>
       </c>
       <c r="J10">
-        <v>0.9973333507786355</v>
+        <v>1.036598399129709</v>
       </c>
       <c r="K10">
-        <v>1.008019587216569</v>
+        <v>1.039537135902215</v>
       </c>
       <c r="L10">
-        <v>0.9770130224368149</v>
+        <v>1.022281292376103</v>
       </c>
       <c r="M10">
-        <v>0.9807202102425352</v>
+        <v>1.032187140617408</v>
       </c>
       <c r="N10">
-        <v>0.9987496785324754</v>
+        <v>1.038070487755971</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.960219601107239</v>
+        <v>1.004072006567698</v>
       </c>
       <c r="D11">
-        <v>0.9876654036061269</v>
+        <v>1.022086790241853</v>
       </c>
       <c r="E11">
-        <v>0.9541553424047561</v>
+        <v>1.003707528175554</v>
       </c>
       <c r="F11">
-        <v>0.9574347878679901</v>
+        <v>1.013551752685756</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030258967345406</v>
+        <v>1.049697126102579</v>
       </c>
       <c r="J11">
-        <v>0.9913463259609401</v>
+        <v>1.033276361015559</v>
       </c>
       <c r="K11">
-        <v>1.002823742409134</v>
+        <v>1.036603865453164</v>
       </c>
       <c r="L11">
-        <v>0.9699968974979521</v>
+        <v>1.018559863013242</v>
       </c>
       <c r="M11">
-        <v>0.9732066852296343</v>
+        <v>1.028222549348098</v>
       </c>
       <c r="N11">
-        <v>0.9927541514528172</v>
+        <v>1.034743731966656</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9573310349083728</v>
+        <v>1.002314933712379</v>
       </c>
       <c r="D12">
-        <v>0.9854257102630857</v>
+        <v>1.020755730497258</v>
       </c>
       <c r="E12">
-        <v>0.9511826991213687</v>
+        <v>1.002068635403019</v>
       </c>
       <c r="F12">
-        <v>0.954271166683361</v>
+        <v>1.011823012699457</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029141080574137</v>
+        <v>1.04893016560402</v>
       </c>
       <c r="J12">
-        <v>0.9890578173657553</v>
+        <v>1.03202164349095</v>
       </c>
       <c r="K12">
-        <v>1.000837560577646</v>
+        <v>1.035495801513454</v>
       </c>
       <c r="L12">
-        <v>0.967308986667033</v>
+        <v>1.017156310646074</v>
       </c>
       <c r="M12">
-        <v>0.9703302240723628</v>
+        <v>1.026727154511731</v>
       </c>
       <c r="N12">
-        <v>0.990462392912932</v>
+        <v>1.033487232599244</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9579544512575026</v>
+        <v>1.002693137092908</v>
       </c>
       <c r="D13">
-        <v>0.9859089970193498</v>
+        <v>1.021042191986759</v>
       </c>
       <c r="E13">
-        <v>0.9518245482504062</v>
+        <v>1.00242128413344</v>
       </c>
       <c r="F13">
-        <v>0.9549541802088953</v>
+        <v>1.012195007867647</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029382468952583</v>
+        <v>1.049095334732682</v>
       </c>
       <c r="J13">
-        <v>0.9895517804612339</v>
+        <v>1.032291748405657</v>
       </c>
       <c r="K13">
-        <v>1.001266270587439</v>
+        <v>1.035734343970882</v>
       </c>
       <c r="L13">
-        <v>0.9678894463843639</v>
+        <v>1.017458364174866</v>
       </c>
       <c r="M13">
-        <v>0.9709513096054038</v>
+        <v>1.027048979390335</v>
       </c>
       <c r="N13">
-        <v>0.9909570574926646</v>
+        <v>1.033757721093911</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9599825311611259</v>
+        <v>1.003927351571677</v>
       </c>
       <c r="D14">
-        <v>0.987481548718436</v>
+        <v>1.021977188070653</v>
       </c>
       <c r="E14">
-        <v>0.953911499434132</v>
+        <v>1.003572550275077</v>
       </c>
       <c r="F14">
-        <v>0.9571752472970736</v>
+        <v>1.013409381101674</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030167276040314</v>
+        <v>1.049634022091357</v>
       </c>
       <c r="J14">
-        <v>0.9911585274955396</v>
+        <v>1.033173077888841</v>
       </c>
       <c r="K14">
-        <v>1.002660754678691</v>
+        <v>1.036512657812178</v>
       </c>
       <c r="L14">
-        <v>0.9697764510151023</v>
+        <v>1.01844428742806</v>
       </c>
       <c r="M14">
-        <v>0.9729707338741727</v>
+        <v>1.028099413780307</v>
       </c>
       <c r="N14">
-        <v>0.9925660862920556</v>
+        <v>1.034640302166051</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9612211456172662</v>
+        <v>1.004684007348933</v>
       </c>
       <c r="D15">
-        <v>0.9884422077708619</v>
+        <v>1.022550529616832</v>
       </c>
       <c r="E15">
-        <v>0.9551852511809599</v>
+        <v>1.004278691766664</v>
       </c>
       <c r="F15">
-        <v>0.9585310613664556</v>
+        <v>1.014154190894075</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030646221295599</v>
+        <v>1.04996402805986</v>
       </c>
       <c r="J15">
-        <v>0.9921396663950312</v>
+        <v>1.033713298156912</v>
       </c>
       <c r="K15">
-        <v>1.003512268446551</v>
+        <v>1.036989710219139</v>
       </c>
       <c r="L15">
-        <v>0.970927907225599</v>
+        <v>1.019048885181651</v>
       </c>
       <c r="M15">
-        <v>0.9742032582492191</v>
+        <v>1.028743553729973</v>
       </c>
       <c r="N15">
-        <v>0.9935486185213224</v>
+        <v>1.035181289608868</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9682715360831949</v>
+        <v>1.009031894617887</v>
       </c>
       <c r="D16">
-        <v>0.9939139218432215</v>
+        <v>1.02584688315563</v>
       </c>
       <c r="E16">
-        <v>0.962424050844516</v>
+        <v>1.008341351515571</v>
       </c>
       <c r="F16">
-        <v>0.9662392696877732</v>
+        <v>1.018438748521275</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033366910974657</v>
+        <v>1.051856543706096</v>
       </c>
       <c r="J16">
-        <v>0.99772208889335</v>
+        <v>1.036816040100682</v>
       </c>
       <c r="K16">
-        <v>1.008356934963482</v>
+        <v>1.039729280780775</v>
       </c>
       <c r="L16">
-        <v>0.9774678063139864</v>
+        <v>1.022525375810353</v>
       </c>
       <c r="M16">
-        <v>0.9812075035137333</v>
+        <v>1.032447155162316</v>
       </c>
       <c r="N16">
-        <v>0.9991389686999017</v>
+        <v>1.038288437802087</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.972562514756117</v>
+        <v>1.011711410250245</v>
       </c>
       <c r="D17">
-        <v>0.9972468660130417</v>
+        <v>1.027879864560282</v>
       </c>
       <c r="E17">
-        <v>0.966820239761809</v>
+        <v>1.010849415419032</v>
       </c>
       <c r="F17">
-        <v>0.9709231473792511</v>
+        <v>1.021083316777821</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035017815654819</v>
+        <v>1.053019513011869</v>
       </c>
       <c r="J17">
-        <v>1.001117496183651</v>
+        <v>1.038726858183508</v>
       </c>
       <c r="K17">
-        <v>1.011303340457243</v>
+        <v>1.041416101276343</v>
       </c>
       <c r="L17">
-        <v>0.9814361642860445</v>
+        <v>1.024669852176362</v>
       </c>
       <c r="M17">
-        <v>0.9854609586310452</v>
+        <v>1.034731508827281</v>
       </c>
       <c r="N17">
-        <v>1.002539197858014</v>
+        <v>1.040201969465765</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9750210308115788</v>
+        <v>1.013257737618198</v>
       </c>
       <c r="D18">
-        <v>0.9991573704766278</v>
+        <v>1.029053587579021</v>
       </c>
       <c r="E18">
-        <v>0.9693358813898707</v>
+        <v>1.012298323795243</v>
       </c>
       <c r="F18">
-        <v>0.9736043358844566</v>
+        <v>1.022610917190338</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035961882516783</v>
+        <v>1.053689427594251</v>
       </c>
       <c r="J18">
-        <v>1.003062099313667</v>
+        <v>1.039829073448562</v>
       </c>
       <c r="K18">
-        <v>1.012990664672494</v>
+        <v>1.042388979939675</v>
       </c>
       <c r="L18">
-        <v>0.9837057770610366</v>
+        <v>1.025908095920066</v>
       </c>
       <c r="M18">
-        <v>0.9878947977527444</v>
+        <v>1.036050445980949</v>
       </c>
       <c r="N18">
-        <v>1.004486562547523</v>
+        <v>1.04130575000292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9758520696155368</v>
+        <v>1.013782239499217</v>
       </c>
       <c r="D19">
-        <v>0.9998033104656413</v>
+        <v>1.029451787484892</v>
       </c>
       <c r="E19">
-        <v>0.9701857163582844</v>
+        <v>1.012790037533951</v>
       </c>
       <c r="F19">
-        <v>0.9745102508660886</v>
+        <v>1.023129308945268</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036280688205357</v>
+        <v>1.053916447447381</v>
       </c>
       <c r="J19">
-        <v>1.003719285751113</v>
+        <v>1.040202848854404</v>
       </c>
       <c r="K19">
-        <v>1.013560878226728</v>
+        <v>1.042718873294547</v>
       </c>
       <c r="L19">
-        <v>0.9844722937096693</v>
+        <v>1.026328211397205</v>
       </c>
       <c r="M19">
-        <v>0.9887169748978755</v>
+        <v>1.036497927375817</v>
       </c>
       <c r="N19">
-        <v>1.005144682265091</v>
+        <v>1.041680056212711</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9721067847846719</v>
+        <v>1.011425653359918</v>
       </c>
       <c r="D20">
-        <v>0.9968927902125273</v>
+        <v>1.027663004007416</v>
       </c>
       <c r="E20">
-        <v>0.9663536695599115</v>
+        <v>1.010581783943401</v>
       </c>
       <c r="F20">
-        <v>0.970425948153985</v>
+        <v>1.020801136591484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034842667359</v>
+        <v>1.052895615037962</v>
       </c>
       <c r="J20">
-        <v>1.000756964026718</v>
+        <v>1.038523130788597</v>
       </c>
       <c r="K20">
-        <v>1.010990497089221</v>
+        <v>1.041236269220252</v>
       </c>
       <c r="L20">
-        <v>0.9810151262561909</v>
+        <v>1.024441082889106</v>
       </c>
       <c r="M20">
-        <v>0.9850095494605288</v>
+        <v>1.034487825360572</v>
       </c>
       <c r="N20">
-        <v>1.002178153704064</v>
+        <v>1.039997952754585</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9593876148124711</v>
+        <v>1.003564698516261</v>
       </c>
       <c r="D21">
-        <v>0.9870202037611124</v>
+        <v>1.021702428617071</v>
       </c>
       <c r="E21">
-        <v>0.9532994865817415</v>
+        <v>1.003234199263302</v>
       </c>
       <c r="F21">
-        <v>0.9565238608134539</v>
+        <v>1.013052491464205</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029937136452231</v>
+        <v>1.049475789027996</v>
       </c>
       <c r="J21">
-        <v>0.9906872368355747</v>
+        <v>1.032914133516895</v>
       </c>
       <c r="K21">
-        <v>1.002251726734452</v>
+        <v>1.036283985412316</v>
       </c>
       <c r="L21">
-        <v>0.9692231283199768</v>
+        <v>1.01815455671891</v>
       </c>
       <c r="M21">
-        <v>0.9723785263006942</v>
+        <v>1.027790729132392</v>
       </c>
       <c r="N21">
-        <v>0.9920941263452955</v>
+        <v>1.034380990063396</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9509202781958809</v>
+        <v>0.9984585965743172</v>
       </c>
       <c r="D22">
-        <v>0.9804588562361222</v>
+        <v>1.017836244867295</v>
       </c>
       <c r="E22">
-        <v>0.9445730703109573</v>
+        <v>0.9984764949011593</v>
       </c>
       <c r="F22">
-        <v>0.9472398676168504</v>
+        <v>1.008033379235786</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026655073302189</v>
+        <v>1.047243493229545</v>
       </c>
       <c r="J22">
-        <v>0.9839766889148029</v>
+        <v>1.029266592663</v>
       </c>
       <c r="K22">
-        <v>0.99642762734025</v>
+        <v>1.033062454030422</v>
       </c>
       <c r="L22">
-        <v>0.9613287581777901</v>
+        <v>1.014078193261805</v>
       </c>
       <c r="M22">
-        <v>0.9639343372343622</v>
+        <v>1.02344735564592</v>
       </c>
       <c r="N22">
-        <v>0.9853740486767657</v>
+        <v>1.030728269283109</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9554574457760437</v>
+        <v>1.001181676595855</v>
       </c>
       <c r="D23">
-        <v>0.9839735585221014</v>
+        <v>1.01989751728895</v>
       </c>
       <c r="E23">
-        <v>0.9492527536633828</v>
+        <v>1.001012332956533</v>
       </c>
       <c r="F23">
-        <v>0.9522176797037717</v>
+        <v>1.010708716445383</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028415223261496</v>
+        <v>1.048434979023459</v>
       </c>
       <c r="J23">
-        <v>0.9875731132800238</v>
+        <v>1.031212194113767</v>
       </c>
       <c r="K23">
-        <v>0.9995489818995549</v>
+        <v>1.03478091334268</v>
       </c>
       <c r="L23">
-        <v>0.9655633378961639</v>
+        <v>1.016251414779406</v>
       </c>
       <c r="M23">
-        <v>0.9684627012527863</v>
+        <v>1.025763006667244</v>
       </c>
       <c r="N23">
-        <v>0.9889755803771009</v>
+        <v>1.0326766337111</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9723128458341431</v>
+        <v>1.011554825713222</v>
       </c>
       <c r="D24">
-        <v>0.9970528849572933</v>
+        <v>1.027761031187194</v>
       </c>
       <c r="E24">
-        <v>0.9665646418476491</v>
+        <v>1.010702758235542</v>
       </c>
       <c r="F24">
-        <v>0.9706507673117238</v>
+        <v>1.020928687680248</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034921867387711</v>
+        <v>1.052951625171684</v>
       </c>
       <c r="J24">
-        <v>1.000919983293665</v>
+        <v>1.038615224436594</v>
       </c>
       <c r="K24">
-        <v>1.011131953662269</v>
+        <v>1.041317561535116</v>
       </c>
       <c r="L24">
-        <v>0.9812055137138823</v>
+        <v>1.024544492690177</v>
       </c>
       <c r="M24">
-        <v>0.9852136666761208</v>
+        <v>1.034597976993573</v>
       </c>
       <c r="N24">
-        <v>1.002341404477069</v>
+        <v>1.040090177186125</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9901532136798565</v>
+        <v>1.022947058303536</v>
       </c>
       <c r="D25">
-        <v>1.010929505949841</v>
+        <v>1.036416109967795</v>
       </c>
       <c r="E25">
-        <v>0.9847706703825465</v>
+        <v>1.021403308714551</v>
       </c>
       <c r="F25">
-        <v>0.9900704924965281</v>
+        <v>1.032207653034053</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041739770018369</v>
+        <v>1.057864848129959</v>
       </c>
       <c r="J25">
-        <v>1.015016567124086</v>
+        <v>1.046726094216542</v>
       </c>
       <c r="K25">
-        <v>1.023360491992203</v>
+        <v>1.048474241601945</v>
       </c>
       <c r="L25">
-        <v>0.9976100940647311</v>
+        <v>1.03367820930761</v>
       </c>
       <c r="M25">
-        <v>1.002824932123859</v>
+        <v>1.044325745093377</v>
       </c>
       <c r="N25">
-        <v>1.01645800707343</v>
+        <v>1.04821256533149</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.031577495360146</v>
+        <v>1.055359515953808</v>
       </c>
       <c r="D2">
-        <v>1.042984536378462</v>
+        <v>1.054647501815008</v>
       </c>
       <c r="E2">
-        <v>1.029552873395074</v>
+        <v>1.063642249761842</v>
       </c>
       <c r="F2">
-        <v>1.040793406867058</v>
+        <v>1.072686208689986</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061547325874976</v>
+        <v>1.051309575409007</v>
       </c>
       <c r="J2">
-        <v>1.052853072880912</v>
+        <v>1.060366788138521</v>
       </c>
       <c r="K2">
-        <v>1.053875828728482</v>
+        <v>1.057390135443281</v>
       </c>
       <c r="L2">
-        <v>1.040615288450783</v>
+        <v>1.066360337123209</v>
       </c>
       <c r="M2">
-        <v>1.051712238577845</v>
+        <v>1.075380064296217</v>
       </c>
       <c r="N2">
-        <v>1.054348245008339</v>
+        <v>1.061872630603448</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.037607211135559</v>
+        <v>1.056553590506037</v>
       </c>
       <c r="D3">
-        <v>1.047578722296507</v>
+        <v>1.055561420612518</v>
       </c>
       <c r="E3">
-        <v>1.035270182785649</v>
+        <v>1.064880279327619</v>
       </c>
       <c r="F3">
-        <v>1.046814524884518</v>
+        <v>1.073981476114814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064096291351701</v>
+        <v>1.051730876426165</v>
       </c>
       <c r="J3">
-        <v>1.057122645163086</v>
+        <v>1.061211327882237</v>
       </c>
       <c r="K3">
-        <v>1.057636973495552</v>
+        <v>1.058117081819682</v>
       </c>
       <c r="L3">
-        <v>1.045470819963433</v>
+        <v>1.067412356293672</v>
       </c>
       <c r="M3">
-        <v>1.05688149606568</v>
+        <v>1.076490944903978</v>
       </c>
       <c r="N3">
-        <v>1.05862388057288</v>
+        <v>1.06271836969047</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.041407425520537</v>
+        <v>1.057325596749082</v>
       </c>
       <c r="D4">
-        <v>1.050476087161246</v>
+        <v>1.056152156852206</v>
       </c>
       <c r="E4">
-        <v>1.038884014465056</v>
+        <v>1.065681458810297</v>
       </c>
       <c r="F4">
-        <v>1.050619460640583</v>
+        <v>1.074819726467995</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065691463621989</v>
+        <v>1.0520018678611</v>
       </c>
       <c r="J4">
-        <v>1.059808124208895</v>
+        <v>1.061756618285103</v>
       </c>
       <c r="K4">
-        <v>1.060001212414498</v>
+        <v>1.058586204770663</v>
       </c>
       <c r="L4">
-        <v>1.048534744740968</v>
+        <v>1.068092609024667</v>
       </c>
       <c r="M4">
-        <v>1.060143053636412</v>
+        <v>1.07720932780191</v>
       </c>
       <c r="N4">
-        <v>1.061313173306963</v>
+        <v>1.063264434468254</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.04298187047638</v>
+        <v>1.057649997371049</v>
       </c>
       <c r="D5">
-        <v>1.051676865304796</v>
+        <v>1.056400352623156</v>
       </c>
       <c r="E5">
-        <v>1.040383711016572</v>
+        <v>1.066018298749033</v>
       </c>
       <c r="F5">
-        <v>1.052198252092693</v>
+        <v>1.075172159286852</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066349594987417</v>
+        <v>1.052115406057348</v>
       </c>
       <c r="J5">
-        <v>1.060919391431148</v>
+        <v>1.061985576616148</v>
       </c>
       <c r="K5">
-        <v>1.06097918791954</v>
+        <v>1.058783123656017</v>
       </c>
       <c r="L5">
-        <v>1.049804987445914</v>
+        <v>1.068378475737859</v>
       </c>
       <c r="M5">
-        <v>1.06149515809412</v>
+        <v>1.077511234770971</v>
       </c>
       <c r="N5">
-        <v>1.062426018656135</v>
+        <v>1.063493717946391</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.04324489927854</v>
+        <v>1.057704456888756</v>
       </c>
       <c r="D6">
-        <v>1.051877489785376</v>
+        <v>1.056442017037737</v>
       </c>
       <c r="E6">
-        <v>1.04063439613115</v>
+        <v>1.066074857132099</v>
       </c>
       <c r="F6">
-        <v>1.052462146417853</v>
+        <v>1.075231336272205</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066459380037465</v>
+        <v>1.052134446974692</v>
       </c>
       <c r="J6">
-        <v>1.061104961334522</v>
+        <v>1.062024003249474</v>
       </c>
       <c r="K6">
-        <v>1.061142477931427</v>
+        <v>1.05881616962338</v>
       </c>
       <c r="L6">
-        <v>1.050017244136722</v>
+        <v>1.068426467533002</v>
       </c>
       <c r="M6">
-        <v>1.061721089739627</v>
+        <v>1.077561920403571</v>
       </c>
       <c r="N6">
-        <v>1.062611852090057</v>
+        <v>1.063532199149944</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.041428552936574</v>
+        <v>1.057329931995656</v>
       </c>
       <c r="D7">
-        <v>1.050492198908428</v>
+        <v>1.056155473843198</v>
       </c>
       <c r="E7">
-        <v>1.038904129127769</v>
+        <v>1.065685959584704</v>
       </c>
       <c r="F7">
-        <v>1.050640636981526</v>
+        <v>1.074824435562534</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065700306013475</v>
+        <v>1.052003386482043</v>
       </c>
       <c r="J7">
-        <v>1.059823041605349</v>
+        <v>1.061759678742731</v>
       </c>
       <c r="K7">
-        <v>1.060014341977443</v>
+        <v>1.058588837189292</v>
       </c>
       <c r="L7">
-        <v>1.048551786798983</v>
+        <v>1.068096429225504</v>
       </c>
       <c r="M7">
-        <v>1.060161194261946</v>
+        <v>1.077213362292744</v>
       </c>
       <c r="N7">
-        <v>1.061328111887831</v>
+        <v>1.063267499272084</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.033636959816574</v>
+        <v>1.055763192953489</v>
       </c>
       <c r="D8">
-        <v>1.044553252651135</v>
+        <v>1.054956496166032</v>
       </c>
       <c r="E8">
-        <v>1.031503389188135</v>
+        <v>1.064060629991656</v>
       </c>
       <c r="F8">
-        <v>1.042847772753423</v>
+        <v>1.07312392571888</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06242028544398</v>
+        <v>1.051452291703544</v>
       </c>
       <c r="J8">
-        <v>1.054312469336599</v>
+        <v>1.060652450225979</v>
       </c>
       <c r="K8">
-        <v>1.055161735271248</v>
+        <v>1.057636072003195</v>
       </c>
       <c r="L8">
-        <v>1.042272888063528</v>
+        <v>1.0667159712475</v>
       </c>
       <c r="M8">
-        <v>1.053477013937717</v>
+        <v>1.07575558208139</v>
       </c>
       <c r="N8">
-        <v>1.055809713974387</v>
+        <v>1.062158698363836</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.0190761385391</v>
+        <v>1.052997391439502</v>
       </c>
       <c r="D9">
-        <v>1.033473163334307</v>
+        <v>1.052838864211593</v>
       </c>
       <c r="E9">
-        <v>1.017760352837264</v>
+        <v>1.061197195932286</v>
       </c>
       <c r="F9">
-        <v>1.028368510818245</v>
+        <v>1.070128270936868</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056201573846774</v>
+        <v>1.050468757410911</v>
       </c>
       <c r="J9">
-        <v>1.043972797249334</v>
+        <v>1.058692240795913</v>
       </c>
       <c r="K9">
-        <v>1.046045541558935</v>
+        <v>1.055947472477919</v>
       </c>
       <c r="L9">
-        <v>1.030571705803677</v>
+        <v>1.064279710228301</v>
       </c>
       <c r="M9">
-        <v>1.04101750517051</v>
+        <v>1.073183394685336</v>
       </c>
       <c r="N9">
-        <v>1.045455358366781</v>
+        <v>1.06019570521154</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.008726793752951</v>
+        <v>1.051150005665538</v>
       </c>
       <c r="D10">
-        <v>1.025615471067556</v>
+        <v>1.051423752484996</v>
       </c>
       <c r="E10">
-        <v>1.008055983597348</v>
+        <v>1.059288508666422</v>
       </c>
       <c r="F10">
-        <v>1.018137825847495</v>
+        <v>1.068131601719875</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051723957068303</v>
+        <v>1.04980465121476</v>
       </c>
       <c r="J10">
-        <v>1.036598399129709</v>
+        <v>1.057379196793265</v>
       </c>
       <c r="K10">
-        <v>1.039537135902215</v>
+        <v>1.054815134038804</v>
       </c>
       <c r="L10">
-        <v>1.022281292376103</v>
+        <v>1.062652912834781</v>
       </c>
       <c r="M10">
-        <v>1.032187140617408</v>
+        <v>1.071466193777035</v>
       </c>
       <c r="N10">
-        <v>1.038070487755971</v>
+        <v>1.0588807965358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.004072006567698</v>
+        <v>1.050349198328299</v>
       </c>
       <c r="D11">
-        <v>1.022086790241853</v>
+        <v>1.050810179507036</v>
       </c>
       <c r="E11">
-        <v>1.003707528175554</v>
+        <v>1.058462058521054</v>
       </c>
       <c r="F11">
-        <v>1.013551752685756</v>
+        <v>1.067267091933563</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049697126102579</v>
+        <v>1.049515076622696</v>
       </c>
       <c r="J11">
-        <v>1.033276361015559</v>
+        <v>1.056809132172366</v>
       </c>
       <c r="K11">
-        <v>1.036603865453164</v>
+        <v>1.054323233826397</v>
       </c>
       <c r="L11">
-        <v>1.018559863013242</v>
+        <v>1.061947841243745</v>
       </c>
       <c r="M11">
-        <v>1.028222549348098</v>
+        <v>1.070722026140467</v>
       </c>
       <c r="N11">
-        <v>1.034743731966656</v>
+        <v>1.058309922357752</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002314933712379</v>
+        <v>1.050051607984094</v>
       </c>
       <c r="D12">
-        <v>1.020755730497258</v>
+        <v>1.050582146321479</v>
       </c>
       <c r="E12">
-        <v>1.002068635403019</v>
+        <v>1.058155078974964</v>
       </c>
       <c r="F12">
-        <v>1.011823012699457</v>
+        <v>1.066945980771258</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04893016560402</v>
+        <v>1.049407212222749</v>
       </c>
       <c r="J12">
-        <v>1.03202164349095</v>
+        <v>1.05659715620466</v>
       </c>
       <c r="K12">
-        <v>1.035495801513454</v>
+        <v>1.054140279595913</v>
       </c>
       <c r="L12">
-        <v>1.017156310646074</v>
+        <v>1.061685844960151</v>
       </c>
       <c r="M12">
-        <v>1.026727154511731</v>
+        <v>1.070445515146605</v>
       </c>
       <c r="N12">
-        <v>1.033487232599244</v>
+        <v>1.058097645359859</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.002693137092908</v>
+        <v>1.050115448274438</v>
       </c>
       <c r="D13">
-        <v>1.021042191986759</v>
+        <v>1.050631065890364</v>
       </c>
       <c r="E13">
-        <v>1.00242128413344</v>
+        <v>1.058220927136487</v>
       </c>
       <c r="F13">
-        <v>1.012195007867647</v>
+        <v>1.067014859969159</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049095334732682</v>
+        <v>1.049430363255983</v>
       </c>
       <c r="J13">
-        <v>1.032291748405657</v>
+        <v>1.056642636146119</v>
       </c>
       <c r="K13">
-        <v>1.035734343970882</v>
+        <v>1.054179534813664</v>
       </c>
       <c r="L13">
-        <v>1.017458364174866</v>
+        <v>1.061742048676754</v>
       </c>
       <c r="M13">
-        <v>1.027048979390335</v>
+        <v>1.070504831989051</v>
       </c>
       <c r="N13">
-        <v>1.033757721093911</v>
+        <v>1.058143189888051</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003927351571677</v>
+        <v>1.050324602186155</v>
       </c>
       <c r="D14">
-        <v>1.021977188070653</v>
+        <v>1.050791332769377</v>
       </c>
       <c r="E14">
-        <v>1.003572550275077</v>
+        <v>1.058436683495038</v>
       </c>
       <c r="F14">
-        <v>1.013409381101674</v>
+        <v>1.067240548673857</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049634022091357</v>
+        <v>1.049506166716011</v>
       </c>
       <c r="J14">
-        <v>1.033173077888841</v>
+        <v>1.05679161484765</v>
       </c>
       <c r="K14">
-        <v>1.036512657812178</v>
+        <v>1.054308115690336</v>
       </c>
       <c r="L14">
-        <v>1.01844428742806</v>
+        <v>1.061926186630245</v>
       </c>
       <c r="M14">
-        <v>1.028099413780307</v>
+        <v>1.070699171588124</v>
       </c>
       <c r="N14">
-        <v>1.034640302166051</v>
+        <v>1.058292380156425</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.004684007348933</v>
+        <v>1.050453450854129</v>
       </c>
       <c r="D15">
-        <v>1.022550529616832</v>
+        <v>1.050890061888728</v>
       </c>
       <c r="E15">
-        <v>1.004278691766664</v>
+        <v>1.058569618136005</v>
       </c>
       <c r="F15">
-        <v>1.014154190894075</v>
+        <v>1.067379603676019</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04996402805986</v>
+        <v>1.049552831476819</v>
       </c>
       <c r="J15">
-        <v>1.033713298156912</v>
+        <v>1.056883375191636</v>
       </c>
       <c r="K15">
-        <v>1.036989710219139</v>
+        <v>1.054387306681283</v>
       </c>
       <c r="L15">
-        <v>1.019048885181651</v>
+        <v>1.062039626602235</v>
       </c>
       <c r="M15">
-        <v>1.028743553729973</v>
+        <v>1.07081889809516</v>
       </c>
       <c r="N15">
-        <v>1.035181289608868</v>
+        <v>1.058384270810625</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.009031894617887</v>
+        <v>1.051203133869877</v>
       </c>
       <c r="D16">
-        <v>1.02584688315563</v>
+        <v>1.051464455882143</v>
       </c>
       <c r="E16">
-        <v>1.008341351515571</v>
+        <v>1.059343357710357</v>
       </c>
       <c r="F16">
-        <v>1.018438748521275</v>
+        <v>1.068188977426372</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051856543706096</v>
+        <v>1.049823826830064</v>
       </c>
       <c r="J16">
-        <v>1.036816040100682</v>
+        <v>1.057416998160975</v>
       </c>
       <c r="K16">
-        <v>1.039729280780775</v>
+        <v>1.05484774618897</v>
       </c>
       <c r="L16">
-        <v>1.022525375810353</v>
+        <v>1.062699692045775</v>
       </c>
       <c r="M16">
-        <v>1.032447155162316</v>
+        <v>1.071515568693367</v>
       </c>
       <c r="N16">
-        <v>1.038288437802087</v>
+        <v>1.058918651585788</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011711410250245</v>
+        <v>1.051673153229933</v>
       </c>
       <c r="D17">
-        <v>1.027879864560282</v>
+        <v>1.051824537305219</v>
       </c>
       <c r="E17">
-        <v>1.010849415419032</v>
+        <v>1.059828708580254</v>
       </c>
       <c r="F17">
-        <v>1.021083316777821</v>
+        <v>1.068696690508457</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053019513011869</v>
+        <v>1.049993275487081</v>
       </c>
       <c r="J17">
-        <v>1.038726858183508</v>
+        <v>1.057751320605025</v>
       </c>
       <c r="K17">
-        <v>1.041416101276343</v>
+        <v>1.055136140802165</v>
       </c>
       <c r="L17">
-        <v>1.024669852176362</v>
+        <v>1.063113555836984</v>
       </c>
       <c r="M17">
-        <v>1.034731508827281</v>
+        <v>1.07195240705213</v>
       </c>
       <c r="N17">
-        <v>1.040201969465765</v>
+        <v>1.059253448806056</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013257737618198</v>
+        <v>1.051947223151415</v>
       </c>
       <c r="D18">
-        <v>1.029053587579021</v>
+        <v>1.052034487675276</v>
       </c>
       <c r="E18">
-        <v>1.012298323795243</v>
+        <v>1.060111808039182</v>
       </c>
       <c r="F18">
-        <v>1.022610917190338</v>
+        <v>1.068992837059575</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053689427594251</v>
+        <v>1.050091917952287</v>
       </c>
       <c r="J18">
-        <v>1.039829073448562</v>
+        <v>1.057946179878751</v>
       </c>
       <c r="K18">
-        <v>1.042388979939675</v>
+        <v>1.055304203184719</v>
       </c>
       <c r="L18">
-        <v>1.025908095920066</v>
+        <v>1.063354892307549</v>
       </c>
       <c r="M18">
-        <v>1.036050445980949</v>
+        <v>1.072207148960362</v>
       </c>
       <c r="N18">
-        <v>1.04130575000292</v>
+        <v>1.059448584802301</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013782239499217</v>
+        <v>1.052040659685284</v>
       </c>
       <c r="D19">
-        <v>1.029451787484892</v>
+        <v>1.052106061969337</v>
       </c>
       <c r="E19">
-        <v>1.012790037533951</v>
+        <v>1.060208338147562</v>
       </c>
       <c r="F19">
-        <v>1.023129308945268</v>
+        <v>1.069093816502961</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053916447447381</v>
+        <v>1.050125519601867</v>
       </c>
       <c r="J19">
-        <v>1.040202848854404</v>
+        <v>1.058012597262533</v>
       </c>
       <c r="K19">
-        <v>1.042718873294547</v>
+        <v>1.055361482159372</v>
       </c>
       <c r="L19">
-        <v>1.026328211397205</v>
+        <v>1.063437171149831</v>
       </c>
       <c r="M19">
-        <v>1.036497927375817</v>
+        <v>1.072293999521027</v>
       </c>
       <c r="N19">
-        <v>1.041680056212711</v>
+        <v>1.059515096506387</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011425653359918</v>
+        <v>1.051622733356122</v>
       </c>
       <c r="D20">
-        <v>1.027663004007416</v>
+        <v>1.051785912163623</v>
       </c>
       <c r="E20">
-        <v>1.010581783943401</v>
+        <v>1.059776634787098</v>
       </c>
       <c r="F20">
-        <v>1.020801136591484</v>
+        <v>1.068642217091138</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052895615037962</v>
+        <v>1.049975115332529</v>
       </c>
       <c r="J20">
-        <v>1.038523130788597</v>
+        <v>1.057715466020867</v>
       </c>
       <c r="K20">
-        <v>1.041236269220252</v>
+        <v>1.05510521466069</v>
       </c>
       <c r="L20">
-        <v>1.024441082889106</v>
+        <v>1.063069158733196</v>
       </c>
       <c r="M20">
-        <v>1.034487825360572</v>
+        <v>1.071905544502986</v>
       </c>
       <c r="N20">
-        <v>1.039997952754585</v>
+        <v>1.059217543304276</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003564698516261</v>
+        <v>1.050263015319204</v>
       </c>
       <c r="D21">
-        <v>1.021702428617071</v>
+        <v>1.050744141627977</v>
       </c>
       <c r="E21">
-        <v>1.003234199263302</v>
+        <v>1.058373148624284</v>
       </c>
       <c r="F21">
-        <v>1.013052491464205</v>
+        <v>1.067174088826054</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049475789027996</v>
+        <v>1.049483852874125</v>
       </c>
       <c r="J21">
-        <v>1.032914133516895</v>
+        <v>1.056747750659746</v>
       </c>
       <c r="K21">
-        <v>1.036283985412316</v>
+        <v>1.054270258481941</v>
       </c>
       <c r="L21">
-        <v>1.01815455671891</v>
+        <v>1.061871965409029</v>
       </c>
       <c r="M21">
-        <v>1.027790729132392</v>
+        <v>1.070641946035808</v>
       </c>
       <c r="N21">
-        <v>1.034380990063396</v>
+        <v>1.058248453676344</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9984585965743172</v>
+        <v>1.04940732493435</v>
       </c>
       <c r="D22">
-        <v>1.017836244867295</v>
+        <v>1.050088415917838</v>
       </c>
       <c r="E22">
-        <v>0.9984764949011593</v>
+        <v>1.057490724625588</v>
       </c>
       <c r="F22">
-        <v>1.008033379235786</v>
+        <v>1.066251053107844</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047243493229545</v>
+        <v>1.049173220101085</v>
       </c>
       <c r="J22">
-        <v>1.029266592663</v>
+        <v>1.056137986063076</v>
       </c>
       <c r="K22">
-        <v>1.033062454030422</v>
+        <v>1.053743895577509</v>
       </c>
       <c r="L22">
-        <v>1.014078193261805</v>
+        <v>1.061118655106622</v>
       </c>
       <c r="M22">
-        <v>1.02344735564592</v>
+        <v>1.069846926378908</v>
       </c>
       <c r="N22">
-        <v>1.030728269283109</v>
+        <v>1.057637823144006</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.001181676595855</v>
+        <v>1.049861017720141</v>
       </c>
       <c r="D23">
-        <v>1.01989751728895</v>
+        <v>1.050436097623047</v>
       </c>
       <c r="E23">
-        <v>1.001012332956533</v>
+        <v>1.057958514884345</v>
       </c>
       <c r="F23">
-        <v>1.010708716445383</v>
+        <v>1.066740369487347</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048434979023459</v>
+        <v>1.049338059311963</v>
       </c>
       <c r="J23">
-        <v>1.031212194113767</v>
+        <v>1.056461359952901</v>
       </c>
       <c r="K23">
-        <v>1.03478091334268</v>
+        <v>1.054023063098463</v>
       </c>
       <c r="L23">
-        <v>1.016251414779406</v>
+        <v>1.061518055662928</v>
       </c>
       <c r="M23">
-        <v>1.025763006667244</v>
+        <v>1.070268433887874</v>
       </c>
       <c r="N23">
-        <v>1.0326766337111</v>
+        <v>1.057961656261846</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011554825713222</v>
+        <v>1.051645516187591</v>
       </c>
       <c r="D24">
-        <v>1.027761031187194</v>
+        <v>1.051803365446758</v>
       </c>
       <c r="E24">
-        <v>1.010702758235542</v>
+        <v>1.05980016468497</v>
       </c>
       <c r="F24">
-        <v>1.020928687680248</v>
+        <v>1.068666831264775</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052951625171684</v>
+        <v>1.049983321724316</v>
       </c>
       <c r="J24">
-        <v>1.038615224436594</v>
+        <v>1.057731667613211</v>
       </c>
       <c r="K24">
-        <v>1.041317561535116</v>
+        <v>1.055119189326552</v>
       </c>
       <c r="L24">
-        <v>1.024544492690177</v>
+        <v>1.06308922006884</v>
       </c>
       <c r="M24">
-        <v>1.034597976993573</v>
+        <v>1.071926719852553</v>
       </c>
       <c r="N24">
-        <v>1.040090177186125</v>
+        <v>1.05923376790474</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.022947058303536</v>
+        <v>1.053713026373843</v>
       </c>
       <c r="D25">
-        <v>1.036416109967795</v>
+        <v>1.053386908940264</v>
       </c>
       <c r="E25">
-        <v>1.021403308714551</v>
+        <v>1.061937404804603</v>
       </c>
       <c r="F25">
-        <v>1.032207653034053</v>
+        <v>1.070902632380209</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057864848129959</v>
+        <v>1.050724503965844</v>
       </c>
       <c r="J25">
-        <v>1.046726094216542</v>
+        <v>1.059200094125208</v>
       </c>
       <c r="K25">
-        <v>1.048474241601945</v>
+        <v>1.056385174296063</v>
       </c>
       <c r="L25">
-        <v>1.03367820930761</v>
+        <v>1.064909995401595</v>
       </c>
       <c r="M25">
-        <v>1.044325745093377</v>
+        <v>1.073848782007548</v>
       </c>
       <c r="N25">
-        <v>1.04821256533149</v>
+        <v>1.060704279750815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.055359515953808</v>
+        <v>1.031577495360146</v>
       </c>
       <c r="D2">
-        <v>1.054647501815008</v>
+        <v>1.042984536378463</v>
       </c>
       <c r="E2">
-        <v>1.063642249761842</v>
+        <v>1.029552873395074</v>
       </c>
       <c r="F2">
-        <v>1.072686208689986</v>
+        <v>1.040793406867058</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051309575409007</v>
+        <v>1.061547325874976</v>
       </c>
       <c r="J2">
-        <v>1.060366788138521</v>
+        <v>1.052853072880913</v>
       </c>
       <c r="K2">
-        <v>1.057390135443281</v>
+        <v>1.053875828728482</v>
       </c>
       <c r="L2">
-        <v>1.066360337123209</v>
+        <v>1.040615288450784</v>
       </c>
       <c r="M2">
-        <v>1.075380064296217</v>
+        <v>1.051712238577845</v>
       </c>
       <c r="N2">
-        <v>1.061872630603448</v>
+        <v>1.054348245008339</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056553590506037</v>
+        <v>1.037607211135559</v>
       </c>
       <c r="D3">
-        <v>1.055561420612518</v>
+        <v>1.047578722296507</v>
       </c>
       <c r="E3">
-        <v>1.064880279327619</v>
+        <v>1.035270182785649</v>
       </c>
       <c r="F3">
-        <v>1.073981476114814</v>
+        <v>1.046814524884518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051730876426165</v>
+        <v>1.0640962913517</v>
       </c>
       <c r="J3">
-        <v>1.061211327882237</v>
+        <v>1.057122645163086</v>
       </c>
       <c r="K3">
-        <v>1.058117081819682</v>
+        <v>1.057636973495552</v>
       </c>
       <c r="L3">
-        <v>1.067412356293672</v>
+        <v>1.045470819963433</v>
       </c>
       <c r="M3">
-        <v>1.076490944903978</v>
+        <v>1.05688149606568</v>
       </c>
       <c r="N3">
-        <v>1.06271836969047</v>
+        <v>1.05862388057288</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057325596749082</v>
+        <v>1.041407425520536</v>
       </c>
       <c r="D4">
-        <v>1.056152156852206</v>
+        <v>1.050476087161246</v>
       </c>
       <c r="E4">
-        <v>1.065681458810297</v>
+        <v>1.038884014465057</v>
       </c>
       <c r="F4">
-        <v>1.074819726467995</v>
+        <v>1.050619460640583</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0520018678611</v>
+        <v>1.065691463621989</v>
       </c>
       <c r="J4">
-        <v>1.061756618285103</v>
+        <v>1.059808124208895</v>
       </c>
       <c r="K4">
-        <v>1.058586204770663</v>
+        <v>1.060001212414498</v>
       </c>
       <c r="L4">
-        <v>1.068092609024667</v>
+        <v>1.048534744740968</v>
       </c>
       <c r="M4">
-        <v>1.07720932780191</v>
+        <v>1.060143053636413</v>
       </c>
       <c r="N4">
-        <v>1.063264434468254</v>
+        <v>1.061313173306963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057649997371049</v>
+        <v>1.042981870476379</v>
       </c>
       <c r="D5">
-        <v>1.056400352623156</v>
+        <v>1.051676865304795</v>
       </c>
       <c r="E5">
-        <v>1.066018298749033</v>
+        <v>1.040383711016572</v>
       </c>
       <c r="F5">
-        <v>1.075172159286852</v>
+        <v>1.052198252092693</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052115406057348</v>
+        <v>1.066349594987416</v>
       </c>
       <c r="J5">
-        <v>1.061985576616148</v>
+        <v>1.060919391431148</v>
       </c>
       <c r="K5">
-        <v>1.058783123656017</v>
+        <v>1.060979187919539</v>
       </c>
       <c r="L5">
-        <v>1.068378475737859</v>
+        <v>1.049804987445913</v>
       </c>
       <c r="M5">
-        <v>1.077511234770971</v>
+        <v>1.06149515809412</v>
       </c>
       <c r="N5">
-        <v>1.063493717946391</v>
+        <v>1.062426018656135</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057704456888756</v>
+        <v>1.043244899278538</v>
       </c>
       <c r="D6">
-        <v>1.056442017037737</v>
+        <v>1.051877489785374</v>
       </c>
       <c r="E6">
-        <v>1.066074857132099</v>
+        <v>1.040634396131149</v>
       </c>
       <c r="F6">
-        <v>1.075231336272205</v>
+        <v>1.052462146417852</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052134446974692</v>
+        <v>1.066459380037464</v>
       </c>
       <c r="J6">
-        <v>1.062024003249474</v>
+        <v>1.06110496133452</v>
       </c>
       <c r="K6">
-        <v>1.05881616962338</v>
+        <v>1.061142477931425</v>
       </c>
       <c r="L6">
-        <v>1.068426467533002</v>
+        <v>1.050017244136721</v>
       </c>
       <c r="M6">
-        <v>1.077561920403571</v>
+        <v>1.061721089739626</v>
       </c>
       <c r="N6">
-        <v>1.063532199149944</v>
+        <v>1.062611852090055</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057329931995656</v>
+        <v>1.041428552936577</v>
       </c>
       <c r="D7">
-        <v>1.056155473843198</v>
+        <v>1.050492198908431</v>
       </c>
       <c r="E7">
-        <v>1.065685959584704</v>
+        <v>1.03890412912777</v>
       </c>
       <c r="F7">
-        <v>1.074824435562534</v>
+        <v>1.050640636981527</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052003386482043</v>
+        <v>1.065700306013477</v>
       </c>
       <c r="J7">
-        <v>1.061759678742731</v>
+        <v>1.059823041605352</v>
       </c>
       <c r="K7">
-        <v>1.058588837189292</v>
+        <v>1.060014341977445</v>
       </c>
       <c r="L7">
-        <v>1.068096429225504</v>
+        <v>1.048551786798983</v>
       </c>
       <c r="M7">
-        <v>1.077213362292744</v>
+        <v>1.060161194261947</v>
       </c>
       <c r="N7">
-        <v>1.063267499272084</v>
+        <v>1.061328111887833</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055763192953489</v>
+        <v>1.033636959816573</v>
       </c>
       <c r="D8">
-        <v>1.054956496166032</v>
+        <v>1.044553252651135</v>
       </c>
       <c r="E8">
-        <v>1.064060629991656</v>
+        <v>1.031503389188135</v>
       </c>
       <c r="F8">
-        <v>1.07312392571888</v>
+        <v>1.042847772753424</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051452291703544</v>
+        <v>1.062420285443979</v>
       </c>
       <c r="J8">
-        <v>1.060652450225979</v>
+        <v>1.054312469336599</v>
       </c>
       <c r="K8">
-        <v>1.057636072003195</v>
+        <v>1.055161735271247</v>
       </c>
       <c r="L8">
-        <v>1.0667159712475</v>
+        <v>1.042272888063528</v>
       </c>
       <c r="M8">
-        <v>1.07575558208139</v>
+        <v>1.053477013937718</v>
       </c>
       <c r="N8">
-        <v>1.062158698363836</v>
+        <v>1.055809713974387</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052997391439502</v>
+        <v>1.019076138539099</v>
       </c>
       <c r="D9">
-        <v>1.052838864211593</v>
+        <v>1.033473163334306</v>
       </c>
       <c r="E9">
-        <v>1.061197195932286</v>
+        <v>1.017760352837264</v>
       </c>
       <c r="F9">
-        <v>1.070128270936868</v>
+        <v>1.028368510818244</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050468757410911</v>
+        <v>1.056201573846774</v>
       </c>
       <c r="J9">
-        <v>1.058692240795913</v>
+        <v>1.043972797249333</v>
       </c>
       <c r="K9">
-        <v>1.055947472477919</v>
+        <v>1.046045541558935</v>
       </c>
       <c r="L9">
-        <v>1.064279710228301</v>
+        <v>1.030571705803677</v>
       </c>
       <c r="M9">
-        <v>1.073183394685336</v>
+        <v>1.04101750517051</v>
       </c>
       <c r="N9">
-        <v>1.06019570521154</v>
+        <v>1.04545535836678</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051150005665538</v>
+        <v>1.008726793752953</v>
       </c>
       <c r="D10">
-        <v>1.051423752484996</v>
+        <v>1.025615471067557</v>
       </c>
       <c r="E10">
-        <v>1.059288508666422</v>
+        <v>1.008055983597349</v>
       </c>
       <c r="F10">
-        <v>1.068131601719875</v>
+        <v>1.018137825847496</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04980465121476</v>
+        <v>1.051723957068304</v>
       </c>
       <c r="J10">
-        <v>1.057379196793265</v>
+        <v>1.036598399129711</v>
       </c>
       <c r="K10">
-        <v>1.054815134038804</v>
+        <v>1.039537135902217</v>
       </c>
       <c r="L10">
-        <v>1.062652912834781</v>
+        <v>1.022281292376104</v>
       </c>
       <c r="M10">
-        <v>1.071466193777035</v>
+        <v>1.032187140617409</v>
       </c>
       <c r="N10">
-        <v>1.0588807965358</v>
+        <v>1.038070487755973</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050349198328299</v>
+        <v>1.004072006567699</v>
       </c>
       <c r="D11">
-        <v>1.050810179507036</v>
+        <v>1.022086790241854</v>
       </c>
       <c r="E11">
-        <v>1.058462058521054</v>
+        <v>1.003707528175555</v>
       </c>
       <c r="F11">
-        <v>1.067267091933563</v>
+        <v>1.013551752685757</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049515076622696</v>
+        <v>1.04969712610258</v>
       </c>
       <c r="J11">
-        <v>1.056809132172366</v>
+        <v>1.03327636101556</v>
       </c>
       <c r="K11">
-        <v>1.054323233826397</v>
+        <v>1.036603865453166</v>
       </c>
       <c r="L11">
-        <v>1.061947841243745</v>
+        <v>1.018559863013243</v>
       </c>
       <c r="M11">
-        <v>1.070722026140467</v>
+        <v>1.028222549348099</v>
       </c>
       <c r="N11">
-        <v>1.058309922357752</v>
+        <v>1.034743731966657</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050051607984094</v>
+        <v>1.002314933712381</v>
       </c>
       <c r="D12">
-        <v>1.050582146321479</v>
+        <v>1.020755730497259</v>
       </c>
       <c r="E12">
-        <v>1.058155078974964</v>
+        <v>1.002068635403019</v>
       </c>
       <c r="F12">
-        <v>1.066945980771258</v>
+        <v>1.011823012699457</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049407212222749</v>
+        <v>1.048930165604021</v>
       </c>
       <c r="J12">
-        <v>1.05659715620466</v>
+        <v>1.032021643490951</v>
       </c>
       <c r="K12">
-        <v>1.054140279595913</v>
+        <v>1.035495801513455</v>
       </c>
       <c r="L12">
-        <v>1.061685844960151</v>
+        <v>1.017156310646074</v>
       </c>
       <c r="M12">
-        <v>1.070445515146605</v>
+        <v>1.026727154511732</v>
       </c>
       <c r="N12">
-        <v>1.058097645359859</v>
+        <v>1.033487232599246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050115448274438</v>
+        <v>1.002693137092909</v>
       </c>
       <c r="D13">
-        <v>1.050631065890364</v>
+        <v>1.02104219198676</v>
       </c>
       <c r="E13">
-        <v>1.058220927136487</v>
+        <v>1.002421284133441</v>
       </c>
       <c r="F13">
-        <v>1.067014859969159</v>
+        <v>1.012195007867648</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049430363255983</v>
+        <v>1.049095334732683</v>
       </c>
       <c r="J13">
-        <v>1.056642636146119</v>
+        <v>1.032291748405658</v>
       </c>
       <c r="K13">
-        <v>1.054179534813664</v>
+        <v>1.035734343970883</v>
       </c>
       <c r="L13">
-        <v>1.061742048676754</v>
+        <v>1.017458364174867</v>
       </c>
       <c r="M13">
-        <v>1.070504831989051</v>
+        <v>1.027048979390336</v>
       </c>
       <c r="N13">
-        <v>1.058143189888051</v>
+        <v>1.033757721093912</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050324602186155</v>
+        <v>1.003927351571679</v>
       </c>
       <c r="D14">
-        <v>1.050791332769377</v>
+        <v>1.021977188070654</v>
       </c>
       <c r="E14">
-        <v>1.058436683495038</v>
+        <v>1.003572550275079</v>
       </c>
       <c r="F14">
-        <v>1.067240548673857</v>
+        <v>1.013409381101677</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049506166716011</v>
+        <v>1.049634022091358</v>
       </c>
       <c r="J14">
-        <v>1.05679161484765</v>
+        <v>1.033173077888842</v>
       </c>
       <c r="K14">
-        <v>1.054308115690336</v>
+        <v>1.03651265781218</v>
       </c>
       <c r="L14">
-        <v>1.061926186630245</v>
+        <v>1.018444287428062</v>
       </c>
       <c r="M14">
-        <v>1.070699171588124</v>
+        <v>1.028099413780309</v>
       </c>
       <c r="N14">
-        <v>1.058292380156425</v>
+        <v>1.034640302166053</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050453450854129</v>
+        <v>1.00468400734893</v>
       </c>
       <c r="D15">
-        <v>1.050890061888728</v>
+        <v>1.022550529616829</v>
       </c>
       <c r="E15">
-        <v>1.058569618136005</v>
+        <v>1.004278691766662</v>
       </c>
       <c r="F15">
-        <v>1.067379603676019</v>
+        <v>1.014154190894073</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049552831476819</v>
+        <v>1.049964028059859</v>
       </c>
       <c r="J15">
-        <v>1.056883375191636</v>
+        <v>1.03371329815691</v>
       </c>
       <c r="K15">
-        <v>1.054387306681283</v>
+        <v>1.036989710219137</v>
       </c>
       <c r="L15">
-        <v>1.062039626602235</v>
+        <v>1.019048885181649</v>
       </c>
       <c r="M15">
-        <v>1.07081889809516</v>
+        <v>1.028743553729971</v>
       </c>
       <c r="N15">
-        <v>1.058384270810625</v>
+        <v>1.035181289608865</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051203133869877</v>
+        <v>1.009031894617886</v>
       </c>
       <c r="D16">
-        <v>1.051464455882143</v>
+        <v>1.02584688315563</v>
       </c>
       <c r="E16">
-        <v>1.059343357710357</v>
+        <v>1.008341351515571</v>
       </c>
       <c r="F16">
-        <v>1.068188977426372</v>
+        <v>1.018438748521276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049823826830064</v>
+        <v>1.051856543706095</v>
       </c>
       <c r="J16">
-        <v>1.057416998160975</v>
+        <v>1.036816040100681</v>
       </c>
       <c r="K16">
-        <v>1.05484774618897</v>
+        <v>1.039729280780775</v>
       </c>
       <c r="L16">
-        <v>1.062699692045775</v>
+        <v>1.022525375810354</v>
       </c>
       <c r="M16">
-        <v>1.071515568693367</v>
+        <v>1.032447155162317</v>
       </c>
       <c r="N16">
-        <v>1.058918651585788</v>
+        <v>1.038288437802086</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051673153229933</v>
+        <v>1.011711410250245</v>
       </c>
       <c r="D17">
-        <v>1.051824537305219</v>
+        <v>1.027879864560282</v>
       </c>
       <c r="E17">
-        <v>1.059828708580254</v>
+        <v>1.010849415419032</v>
       </c>
       <c r="F17">
-        <v>1.068696690508457</v>
+        <v>1.021083316777822</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049993275487081</v>
+        <v>1.053019513011869</v>
       </c>
       <c r="J17">
-        <v>1.057751320605025</v>
+        <v>1.038726858183509</v>
       </c>
       <c r="K17">
-        <v>1.055136140802165</v>
+        <v>1.041416101276343</v>
       </c>
       <c r="L17">
-        <v>1.063113555836984</v>
+        <v>1.024669852176362</v>
       </c>
       <c r="M17">
-        <v>1.07195240705213</v>
+        <v>1.034731508827281</v>
       </c>
       <c r="N17">
-        <v>1.059253448806056</v>
+        <v>1.040201969465765</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051947223151415</v>
+        <v>1.013257737618199</v>
       </c>
       <c r="D18">
-        <v>1.052034487675276</v>
+        <v>1.029053587579021</v>
       </c>
       <c r="E18">
-        <v>1.060111808039182</v>
+        <v>1.012298323795243</v>
       </c>
       <c r="F18">
-        <v>1.068992837059575</v>
+        <v>1.022610917190338</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050091917952287</v>
+        <v>1.053689427594251</v>
       </c>
       <c r="J18">
-        <v>1.057946179878751</v>
+        <v>1.039829073448562</v>
       </c>
       <c r="K18">
-        <v>1.055304203184719</v>
+        <v>1.042388979939676</v>
       </c>
       <c r="L18">
-        <v>1.063354892307549</v>
+        <v>1.025908095920066</v>
       </c>
       <c r="M18">
-        <v>1.072207148960362</v>
+        <v>1.036050445980949</v>
       </c>
       <c r="N18">
-        <v>1.059448584802301</v>
+        <v>1.041305750002921</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052040659685284</v>
+        <v>1.013782239499216</v>
       </c>
       <c r="D19">
-        <v>1.052106061969337</v>
+        <v>1.029451787484892</v>
       </c>
       <c r="E19">
-        <v>1.060208338147562</v>
+        <v>1.012790037533951</v>
       </c>
       <c r="F19">
-        <v>1.069093816502961</v>
+        <v>1.023129308945268</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050125519601867</v>
+        <v>1.05391644744738</v>
       </c>
       <c r="J19">
-        <v>1.058012597262533</v>
+        <v>1.040202848854404</v>
       </c>
       <c r="K19">
-        <v>1.055361482159372</v>
+        <v>1.042718873294546</v>
       </c>
       <c r="L19">
-        <v>1.063437171149831</v>
+        <v>1.026328211397206</v>
       </c>
       <c r="M19">
-        <v>1.072293999521027</v>
+        <v>1.036497927375818</v>
       </c>
       <c r="N19">
-        <v>1.059515096506387</v>
+        <v>1.041680056212711</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051622733356122</v>
+        <v>1.011425653359921</v>
       </c>
       <c r="D20">
-        <v>1.051785912163623</v>
+        <v>1.027663004007418</v>
       </c>
       <c r="E20">
-        <v>1.059776634787098</v>
+        <v>1.010581783943403</v>
       </c>
       <c r="F20">
-        <v>1.068642217091138</v>
+        <v>1.020801136591486</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049975115332529</v>
+        <v>1.052895615037964</v>
       </c>
       <c r="J20">
-        <v>1.057715466020867</v>
+        <v>1.038523130788599</v>
       </c>
       <c r="K20">
-        <v>1.05510521466069</v>
+        <v>1.041236269220255</v>
       </c>
       <c r="L20">
-        <v>1.063069158733196</v>
+        <v>1.024441082889108</v>
       </c>
       <c r="M20">
-        <v>1.071905544502986</v>
+        <v>1.034487825360574</v>
       </c>
       <c r="N20">
-        <v>1.059217543304276</v>
+        <v>1.039997952754587</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050263015319204</v>
+        <v>1.003564698516262</v>
       </c>
       <c r="D21">
-        <v>1.050744141627977</v>
+        <v>1.021702428617071</v>
       </c>
       <c r="E21">
-        <v>1.058373148624284</v>
+        <v>1.003234199263303</v>
       </c>
       <c r="F21">
-        <v>1.067174088826054</v>
+        <v>1.013052491464207</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049483852874125</v>
+        <v>1.049475789027996</v>
       </c>
       <c r="J21">
-        <v>1.056747750659746</v>
+        <v>1.032914133516896</v>
       </c>
       <c r="K21">
-        <v>1.054270258481941</v>
+        <v>1.036283985412317</v>
       </c>
       <c r="L21">
-        <v>1.061871965409029</v>
+        <v>1.018154556718911</v>
       </c>
       <c r="M21">
-        <v>1.070641946035808</v>
+        <v>1.027790729132393</v>
       </c>
       <c r="N21">
-        <v>1.058248453676344</v>
+        <v>1.034380990063397</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04940732493435</v>
+        <v>0.9984585965743189</v>
       </c>
       <c r="D22">
-        <v>1.050088415917838</v>
+        <v>1.017836244867296</v>
       </c>
       <c r="E22">
-        <v>1.057490724625588</v>
+        <v>0.9984764949011606</v>
       </c>
       <c r="F22">
-        <v>1.066251053107844</v>
+        <v>1.008033379235788</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049173220101085</v>
+        <v>1.047243493229546</v>
       </c>
       <c r="J22">
-        <v>1.056137986063076</v>
+        <v>1.029266592663001</v>
       </c>
       <c r="K22">
-        <v>1.053743895577509</v>
+        <v>1.033062454030424</v>
       </c>
       <c r="L22">
-        <v>1.061118655106622</v>
+        <v>1.014078193261807</v>
       </c>
       <c r="M22">
-        <v>1.069846926378908</v>
+        <v>1.023447355645921</v>
       </c>
       <c r="N22">
-        <v>1.057637823144006</v>
+        <v>1.030728269283111</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049861017720141</v>
+        <v>1.001181676595857</v>
       </c>
       <c r="D23">
-        <v>1.050436097623047</v>
+        <v>1.019897517288952</v>
       </c>
       <c r="E23">
-        <v>1.057958514884345</v>
+        <v>1.001012332956534</v>
       </c>
       <c r="F23">
-        <v>1.066740369487347</v>
+        <v>1.010708716445384</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049338059311963</v>
+        <v>1.04843497902346</v>
       </c>
       <c r="J23">
-        <v>1.056461359952901</v>
+        <v>1.031212194113769</v>
       </c>
       <c r="K23">
-        <v>1.054023063098463</v>
+        <v>1.034780913342682</v>
       </c>
       <c r="L23">
-        <v>1.061518055662928</v>
+        <v>1.016251414779408</v>
       </c>
       <c r="M23">
-        <v>1.070268433887874</v>
+        <v>1.025763006667245</v>
       </c>
       <c r="N23">
-        <v>1.057961656261846</v>
+        <v>1.032676633711102</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051645516187591</v>
+        <v>1.011554825713222</v>
       </c>
       <c r="D24">
-        <v>1.051803365446758</v>
+        <v>1.027761031187194</v>
       </c>
       <c r="E24">
-        <v>1.05980016468497</v>
+        <v>1.010702758235543</v>
       </c>
       <c r="F24">
-        <v>1.068666831264775</v>
+        <v>1.020928687680249</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049983321724316</v>
+        <v>1.052951625171684</v>
       </c>
       <c r="J24">
-        <v>1.057731667613211</v>
+        <v>1.038615224436594</v>
       </c>
       <c r="K24">
-        <v>1.055119189326552</v>
+        <v>1.041317561535116</v>
       </c>
       <c r="L24">
-        <v>1.06308922006884</v>
+        <v>1.024544492690178</v>
       </c>
       <c r="M24">
-        <v>1.071926719852553</v>
+        <v>1.034597976993574</v>
       </c>
       <c r="N24">
-        <v>1.05923376790474</v>
+        <v>1.040090177186125</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053713026373843</v>
+        <v>1.022947058303538</v>
       </c>
       <c r="D25">
-        <v>1.053386908940264</v>
+        <v>1.036416109967796</v>
       </c>
       <c r="E25">
-        <v>1.061937404804603</v>
+        <v>1.021403308714552</v>
       </c>
       <c r="F25">
-        <v>1.070902632380209</v>
+        <v>1.032207653034053</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050724503965844</v>
+        <v>1.05786484812996</v>
       </c>
       <c r="J25">
-        <v>1.059200094125208</v>
+        <v>1.046726094216543</v>
       </c>
       <c r="K25">
-        <v>1.056385174296063</v>
+        <v>1.048474241601946</v>
       </c>
       <c r="L25">
-        <v>1.064909995401595</v>
+        <v>1.03367820930761</v>
       </c>
       <c r="M25">
-        <v>1.073848782007548</v>
+        <v>1.044325745093377</v>
       </c>
       <c r="N25">
-        <v>1.060704279750815</v>
+        <v>1.048212565331492</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031577495360146</v>
+        <v>1.01767620359158</v>
       </c>
       <c r="D2">
-        <v>1.042984536378463</v>
+        <v>1.033445247324566</v>
       </c>
       <c r="E2">
-        <v>1.029552873395074</v>
+        <v>1.02272465933527</v>
       </c>
       <c r="F2">
-        <v>1.040793406867058</v>
+        <v>1.031318598697801</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061547325874976</v>
+        <v>1.053632022886894</v>
       </c>
       <c r="J2">
-        <v>1.052853072880913</v>
+        <v>1.03934077679846</v>
       </c>
       <c r="K2">
-        <v>1.053875828728482</v>
+        <v>1.044457500385933</v>
       </c>
       <c r="L2">
-        <v>1.040615288450784</v>
+        <v>1.033876227622623</v>
       </c>
       <c r="M2">
-        <v>1.051712238577845</v>
+        <v>1.042358199718055</v>
       </c>
       <c r="N2">
-        <v>1.054348245008339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016835877696173</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04209606260042</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042505583510647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037607211135559</v>
+        <v>1.02159042505243</v>
       </c>
       <c r="D3">
-        <v>1.047578722296507</v>
+        <v>1.036072682966604</v>
       </c>
       <c r="E3">
-        <v>1.035270182785649</v>
+        <v>1.0263416632994</v>
       </c>
       <c r="F3">
-        <v>1.046814524884518</v>
+        <v>1.034687502303833</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0640962913517</v>
+        <v>1.054779970550817</v>
       </c>
       <c r="J3">
-        <v>1.057122645163086</v>
+        <v>1.041509330680621</v>
       </c>
       <c r="K3">
-        <v>1.057636973495552</v>
+        <v>1.046263909223592</v>
       </c>
       <c r="L3">
-        <v>1.045470819963433</v>
+        <v>1.036648236537147</v>
       </c>
       <c r="M3">
-        <v>1.05688149606568</v>
+        <v>1.044894983899342</v>
       </c>
       <c r="N3">
-        <v>1.05862388057288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017570373001617</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044103749987627</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043780208221463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041407425520536</v>
+        <v>1.024072990221015</v>
       </c>
       <c r="D4">
-        <v>1.050476087161246</v>
+        <v>1.037742179491014</v>
       </c>
       <c r="E4">
-        <v>1.038884014465057</v>
+        <v>1.028646002759466</v>
       </c>
       <c r="F4">
-        <v>1.050619460640583</v>
+        <v>1.036834263467382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065691463621989</v>
+        <v>1.055497418163618</v>
       </c>
       <c r="J4">
-        <v>1.059808124208895</v>
+        <v>1.042880327786815</v>
       </c>
       <c r="K4">
-        <v>1.060001212414498</v>
+        <v>1.047405468547173</v>
       </c>
       <c r="L4">
-        <v>1.048534744740968</v>
+        <v>1.038410564775831</v>
       </c>
       <c r="M4">
-        <v>1.060143053636413</v>
+        <v>1.046507562746168</v>
       </c>
       <c r="N4">
-        <v>1.061313173306963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018034969299582</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045379990572079</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044588270172376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042981870476379</v>
+        <v>1.025108612689991</v>
       </c>
       <c r="D5">
-        <v>1.051676865304795</v>
+        <v>1.038441485504404</v>
       </c>
       <c r="E5">
-        <v>1.040383711016572</v>
+        <v>1.029608425565633</v>
       </c>
       <c r="F5">
-        <v>1.052198252092693</v>
+        <v>1.037730589617314</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066349594987416</v>
+        <v>1.055795707206114</v>
       </c>
       <c r="J5">
-        <v>1.060919391431148</v>
+        <v>1.043452699575368</v>
       </c>
       <c r="K5">
-        <v>1.060979187919539</v>
+        <v>1.047883539286636</v>
       </c>
       <c r="L5">
-        <v>1.049804987445913</v>
+        <v>1.039146186822892</v>
       </c>
       <c r="M5">
-        <v>1.06149515809412</v>
+        <v>1.047180272176725</v>
       </c>
       <c r="N5">
-        <v>1.062426018656135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018229826311921</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045912391216776</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044933425733909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043244899278538</v>
+        <v>1.025286208041864</v>
       </c>
       <c r="D6">
-        <v>1.051877489785374</v>
+        <v>1.038564069963316</v>
       </c>
       <c r="E6">
-        <v>1.040634396131149</v>
+        <v>1.029772042440082</v>
       </c>
       <c r="F6">
-        <v>1.052462146417852</v>
+        <v>1.037882490392721</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066459380037464</v>
+        <v>1.05584864230959</v>
       </c>
       <c r="J6">
-        <v>1.06110496133452</v>
+        <v>1.043552649812124</v>
       </c>
       <c r="K6">
-        <v>1.061142477931425</v>
+        <v>1.047968961513966</v>
       </c>
       <c r="L6">
-        <v>1.050017244136721</v>
+        <v>1.039271757613797</v>
       </c>
       <c r="M6">
-        <v>1.061721089739626</v>
+        <v>1.047294662543201</v>
       </c>
       <c r="N6">
-        <v>1.062611852090055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018264875502758</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046002922843471</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045002512097268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041428552936577</v>
+        <v>1.024098619691464</v>
       </c>
       <c r="D7">
-        <v>1.050492198908431</v>
+        <v>1.037766492390765</v>
       </c>
       <c r="E7">
-        <v>1.03890412912777</v>
+        <v>1.028665698705341</v>
       </c>
       <c r="F7">
-        <v>1.050640636981527</v>
+        <v>1.03685124382999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065700306013477</v>
+        <v>1.055509982448009</v>
       </c>
       <c r="J7">
-        <v>1.059823041605352</v>
+        <v>1.042899469521134</v>
       </c>
       <c r="K7">
-        <v>1.060014341977445</v>
+        <v>1.04742665784632</v>
       </c>
       <c r="L7">
-        <v>1.048551786798983</v>
+        <v>1.038427149463299</v>
       </c>
       <c r="M7">
-        <v>1.060161194261947</v>
+        <v>1.046521496501407</v>
       </c>
       <c r="N7">
-        <v>1.061328111887833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018044260067582</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045391018131036</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044623234056668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033636959816573</v>
+        <v>1.01902413104546</v>
       </c>
       <c r="D8">
-        <v>1.044553252651135</v>
+        <v>1.034358016713703</v>
       </c>
       <c r="E8">
-        <v>1.031503389188135</v>
+        <v>1.02396345727729</v>
       </c>
       <c r="F8">
-        <v>1.042847772753424</v>
+        <v>1.032470369258515</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062420285443979</v>
+        <v>1.054035788693846</v>
       </c>
       <c r="J8">
-        <v>1.054312469336599</v>
+        <v>1.040094516799104</v>
       </c>
       <c r="K8">
-        <v>1.055161735271247</v>
+        <v>1.045091861175117</v>
       </c>
       <c r="L8">
-        <v>1.042272888063528</v>
+        <v>1.034828324390615</v>
       </c>
       <c r="M8">
-        <v>1.053477013937718</v>
+        <v>1.043227762989683</v>
       </c>
       <c r="N8">
-        <v>1.055809713974387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017094755843891</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042784261781571</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042976902840149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019076138539099</v>
+        <v>1.009662038317946</v>
       </c>
       <c r="D9">
-        <v>1.033473163334306</v>
+        <v>1.028084689830361</v>
       </c>
       <c r="E9">
-        <v>1.017760352837264</v>
+        <v>1.015377178501637</v>
       </c>
       <c r="F9">
-        <v>1.028368510818244</v>
+        <v>1.024477470323707</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056201573846774</v>
+        <v>1.051225119916015</v>
       </c>
       <c r="J9">
-        <v>1.043972797249333</v>
+        <v>1.034878158737767</v>
       </c>
       <c r="K9">
-        <v>1.046045541558935</v>
+        <v>1.040737972513465</v>
       </c>
       <c r="L9">
-        <v>1.030571705803677</v>
+        <v>1.028225602696521</v>
       </c>
       <c r="M9">
-        <v>1.04101750517051</v>
+        <v>1.037185519436411</v>
       </c>
       <c r="N9">
-        <v>1.04545535836678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015326197073309</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038002230398418</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039895281417807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008726793752953</v>
+        <v>1.003201717327795</v>
       </c>
       <c r="D10">
-        <v>1.025615471067557</v>
+        <v>1.023784541785306</v>
       </c>
       <c r="E10">
-        <v>1.008055983597349</v>
+        <v>1.009674263831327</v>
       </c>
       <c r="F10">
-        <v>1.018137825847496</v>
+        <v>1.019189519321733</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051723957068304</v>
+        <v>1.049250514985313</v>
       </c>
       <c r="J10">
-        <v>1.036598399129711</v>
+        <v>1.031288878769693</v>
       </c>
       <c r="K10">
-        <v>1.039537135902217</v>
+        <v>1.037737239620797</v>
       </c>
       <c r="L10">
-        <v>1.022281292376104</v>
+        <v>1.023871016072103</v>
       </c>
       <c r="M10">
-        <v>1.032187140617409</v>
+        <v>1.033220734434645</v>
       </c>
       <c r="N10">
-        <v>1.038070487755973</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014119464955195</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034916012750975</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037790337241688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004072006567699</v>
+        <v>1.000940188385435</v>
       </c>
       <c r="D11">
-        <v>1.022086790241854</v>
+        <v>1.022343225548964</v>
       </c>
       <c r="E11">
-        <v>1.003707528175555</v>
+        <v>1.009035262450451</v>
       </c>
       <c r="F11">
-        <v>1.013551752685757</v>
+        <v>1.018741809686926</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04969712610258</v>
+        <v>1.048686568926771</v>
       </c>
       <c r="J11">
-        <v>1.03327636101556</v>
+        <v>1.030273906660426</v>
       </c>
       <c r="K11">
-        <v>1.036603865453166</v>
+        <v>1.036855733748806</v>
       </c>
       <c r="L11">
-        <v>1.018559863013243</v>
+        <v>1.023788775044297</v>
       </c>
       <c r="M11">
-        <v>1.028222549348099</v>
+        <v>1.033318731322843</v>
       </c>
       <c r="N11">
-        <v>1.034743731966657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01384580092188</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035431313802575</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037199820001766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002314933712381</v>
+        <v>1.000315846031522</v>
       </c>
       <c r="D12">
-        <v>1.020755730497259</v>
+        <v>1.021967184613823</v>
       </c>
       <c r="E12">
-        <v>1.002068635403019</v>
+        <v>1.009502580959284</v>
       </c>
       <c r="F12">
-        <v>1.011823012699457</v>
+        <v>1.019276702080067</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048930165604021</v>
+        <v>1.048590374477695</v>
       </c>
       <c r="J12">
-        <v>1.032021643490951</v>
+        <v>1.030106844698935</v>
       </c>
       <c r="K12">
-        <v>1.035495801513455</v>
+        <v>1.036685291596774</v>
       </c>
       <c r="L12">
-        <v>1.017156310646074</v>
+        <v>1.024449963198431</v>
       </c>
       <c r="M12">
-        <v>1.026727154511732</v>
+        <v>1.034043680454836</v>
       </c>
       <c r="N12">
-        <v>1.033487232599246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013839469778873</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036331959901834</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037079312557665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002693137092909</v>
+        <v>1.000922570242223</v>
       </c>
       <c r="D13">
-        <v>1.02104219198676</v>
+        <v>1.022401373232354</v>
       </c>
       <c r="E13">
-        <v>1.002421284133441</v>
+        <v>1.010861199972101</v>
       </c>
       <c r="F13">
-        <v>1.012195007867648</v>
+        <v>1.020619357128736</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049095334732683</v>
+        <v>1.048861175236832</v>
       </c>
       <c r="J13">
-        <v>1.032291748405658</v>
+        <v>1.030595458082091</v>
       </c>
       <c r="K13">
-        <v>1.035734343970883</v>
+        <v>1.037068987664908</v>
       </c>
       <c r="L13">
-        <v>1.017458364174867</v>
+        <v>1.025739887985343</v>
       </c>
       <c r="M13">
-        <v>1.027048979390336</v>
+        <v>1.035319159962217</v>
       </c>
       <c r="N13">
-        <v>1.033757721093912</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014047212598212</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037617595054424</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037348111633735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003927351571679</v>
+        <v>1.001902436109279</v>
       </c>
       <c r="D14">
-        <v>1.021977188070654</v>
+        <v>1.023071824988487</v>
       </c>
       <c r="E14">
-        <v>1.003572550275079</v>
+        <v>1.012201553506155</v>
       </c>
       <c r="F14">
-        <v>1.013409381101677</v>
+        <v>1.021913448272538</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049634022091358</v>
+        <v>1.049215828920155</v>
       </c>
       <c r="J14">
-        <v>1.033173077888842</v>
+        <v>1.031231826396167</v>
       </c>
       <c r="K14">
-        <v>1.03651265781218</v>
+        <v>1.037587789581108</v>
       </c>
       <c r="L14">
-        <v>1.018444287428062</v>
+        <v>1.02691364935101</v>
       </c>
       <c r="M14">
-        <v>1.028099413780309</v>
+        <v>1.036450055454209</v>
       </c>
       <c r="N14">
-        <v>1.034640302166053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014288917011452</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038685044160911</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037716339586925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00468400734893</v>
+        <v>1.002414305088454</v>
       </c>
       <c r="D15">
-        <v>1.022550529616829</v>
+        <v>1.023417821196561</v>
       </c>
       <c r="E15">
-        <v>1.004278691766662</v>
+        <v>1.012744430740065</v>
       </c>
       <c r="F15">
-        <v>1.014154190894073</v>
+        <v>1.02242948859007</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049964028059859</v>
+        <v>1.049386339466822</v>
       </c>
       <c r="J15">
-        <v>1.03371329815691</v>
+        <v>1.031536506708955</v>
       </c>
       <c r="K15">
-        <v>1.036989710219137</v>
+        <v>1.037841670959677</v>
       </c>
       <c r="L15">
-        <v>1.019048885181649</v>
+        <v>1.02735932704431</v>
       </c>
       <c r="M15">
-        <v>1.028743553729971</v>
+        <v>1.036870811479143</v>
       </c>
       <c r="N15">
-        <v>1.035181289608865</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014397876917198</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039055172058849</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037901692101001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009031894617886</v>
+        <v>1.005026697641232</v>
       </c>
       <c r="D16">
-        <v>1.02584688315563</v>
+        <v>1.025150864801214</v>
       </c>
       <c r="E16">
-        <v>1.008341351515571</v>
+        <v>1.014893556850219</v>
       </c>
       <c r="F16">
-        <v>1.018438748521276</v>
+        <v>1.024433095464941</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051856543706095</v>
+        <v>1.05018232328323</v>
       </c>
       <c r="J16">
-        <v>1.036816040100681</v>
+        <v>1.032966136769912</v>
       </c>
       <c r="K16">
-        <v>1.039729280780775</v>
+        <v>1.039045001382374</v>
       </c>
       <c r="L16">
-        <v>1.022525375810354</v>
+        <v>1.028963107689612</v>
       </c>
       <c r="M16">
-        <v>1.032447155162317</v>
+        <v>1.03833935940881</v>
       </c>
       <c r="N16">
-        <v>1.038288437802086</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014871259425079</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040177173989909</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038755637481085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011711410250245</v>
+        <v>1.006520999925715</v>
       </c>
       <c r="D17">
-        <v>1.027879864560282</v>
+        <v>1.026132691511289</v>
       </c>
       <c r="E17">
-        <v>1.010849415419032</v>
+        <v>1.015844800741664</v>
       </c>
       <c r="F17">
-        <v>1.021083316777822</v>
+        <v>1.025290882660281</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053019513011869</v>
+        <v>1.05060607349409</v>
       </c>
       <c r="J17">
-        <v>1.038726858183509</v>
+        <v>1.033730871766568</v>
       </c>
       <c r="K17">
-        <v>1.041416101276343</v>
+        <v>1.039697526227358</v>
       </c>
       <c r="L17">
-        <v>1.024669852176362</v>
+        <v>1.029580602029185</v>
       </c>
       <c r="M17">
-        <v>1.034731508827281</v>
+        <v>1.038869540983186</v>
       </c>
       <c r="N17">
-        <v>1.040201969465765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01510835472348</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040467155067172</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039219570227902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013257737618199</v>
+        <v>1.007179674737232</v>
       </c>
       <c r="D18">
-        <v>1.029053587579021</v>
+        <v>1.02654247631796</v>
       </c>
       <c r="E18">
-        <v>1.012298323795243</v>
+        <v>1.015769398923316</v>
       </c>
       <c r="F18">
-        <v>1.022610917190338</v>
+        <v>1.025153226502493</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053689427594251</v>
+        <v>1.050738831828917</v>
       </c>
       <c r="J18">
-        <v>1.039829073448562</v>
+        <v>1.033974159924061</v>
       </c>
       <c r="K18">
-        <v>1.042388979939676</v>
+        <v>1.039918257649171</v>
       </c>
       <c r="L18">
-        <v>1.025908095920066</v>
+        <v>1.029321372658979</v>
       </c>
       <c r="M18">
-        <v>1.036050445980949</v>
+        <v>1.038551461818116</v>
       </c>
       <c r="N18">
-        <v>1.041305750002921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015153434027904</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039977859372001</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039364043327362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013782239499216</v>
+        <v>1.007095740788777</v>
       </c>
       <c r="D19">
-        <v>1.029451787484892</v>
+        <v>1.026453619370492</v>
       </c>
       <c r="E19">
-        <v>1.012790037533951</v>
+        <v>1.014756824411907</v>
       </c>
       <c r="F19">
-        <v>1.023129308945268</v>
+        <v>1.024102731474643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05391644744738</v>
+        <v>1.050621059983468</v>
       </c>
       <c r="J19">
-        <v>1.040202848854404</v>
+        <v>1.0337602574718</v>
       </c>
       <c r="K19">
-        <v>1.042718873294546</v>
+        <v>1.039768652728142</v>
       </c>
       <c r="L19">
-        <v>1.026328211397206</v>
+        <v>1.028262402129631</v>
       </c>
       <c r="M19">
-        <v>1.036497927375818</v>
+        <v>1.037455612927028</v>
       </c>
       <c r="N19">
-        <v>1.041680056212711</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015035501864915</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038785436502426</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039264638171107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011425653359921</v>
+        <v>1.004908549172333</v>
       </c>
       <c r="D20">
-        <v>1.027663004007418</v>
+        <v>1.024936377524829</v>
       </c>
       <c r="E20">
-        <v>1.010581783943403</v>
+        <v>1.011177698895948</v>
       </c>
       <c r="F20">
-        <v>1.020801136591486</v>
+        <v>1.020579420588807</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052895615037964</v>
+        <v>1.04978848455108</v>
       </c>
       <c r="J20">
-        <v>1.038523130788599</v>
+        <v>1.032251557043147</v>
       </c>
       <c r="K20">
-        <v>1.041236269220255</v>
+        <v>1.038554478662339</v>
       </c>
       <c r="L20">
-        <v>1.024441082889108</v>
+        <v>1.025026808780482</v>
       </c>
       <c r="M20">
-        <v>1.034487825360574</v>
+        <v>1.034269806993081</v>
       </c>
       <c r="N20">
-        <v>1.039997952754587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014451553647236</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035735652375543</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038410085315904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003564698516262</v>
+        <v>0.9999293873263152</v>
       </c>
       <c r="D21">
-        <v>1.021702428617071</v>
+        <v>1.021615748072326</v>
       </c>
       <c r="E21">
-        <v>1.003234199263303</v>
+        <v>1.006549429157418</v>
       </c>
       <c r="F21">
-        <v>1.013052491464207</v>
+        <v>1.01625926003741</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049475789027996</v>
+        <v>1.04822041324767</v>
       </c>
       <c r="J21">
-        <v>1.032914133516896</v>
+        <v>1.029430061123511</v>
       </c>
       <c r="K21">
-        <v>1.036283985412317</v>
+        <v>1.036198857863222</v>
       </c>
       <c r="L21">
-        <v>1.018154556718911</v>
+        <v>1.021407773953743</v>
       </c>
       <c r="M21">
-        <v>1.027790729132393</v>
+        <v>1.030939007064115</v>
       </c>
       <c r="N21">
-        <v>1.034380990063397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013490038537971</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033058500250006</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036747806902793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9984585965743189</v>
+        <v>0.9967533995117932</v>
       </c>
       <c r="D22">
-        <v>1.017836244867296</v>
+        <v>1.01949941767015</v>
       </c>
       <c r="E22">
-        <v>0.9984764949011606</v>
+        <v>1.003694907091072</v>
       </c>
       <c r="F22">
-        <v>1.008033379235788</v>
+        <v>1.013607295385218</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047243493229546</v>
+        <v>1.047213366261112</v>
       </c>
       <c r="J22">
-        <v>1.029266592663001</v>
+        <v>1.027636753389777</v>
       </c>
       <c r="K22">
-        <v>1.033062454030424</v>
+        <v>1.03469423792309</v>
       </c>
       <c r="L22">
-        <v>1.014078193261807</v>
+        <v>1.019193520803182</v>
       </c>
       <c r="M22">
-        <v>1.023447355645921</v>
+        <v>1.02891392429253</v>
       </c>
       <c r="N22">
-        <v>1.030728269283111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012879582689181</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031455764405867</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035670511158263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001181676595857</v>
+        <v>0.9984335754410457</v>
       </c>
       <c r="D23">
-        <v>1.019897517288952</v>
+        <v>1.020612464912316</v>
       </c>
       <c r="E23">
-        <v>1.001012332956534</v>
+        <v>1.005205763982763</v>
       </c>
       <c r="F23">
-        <v>1.010708716445384</v>
+        <v>1.01501297666514</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04843497902346</v>
+        <v>1.047743018880732</v>
       </c>
       <c r="J23">
-        <v>1.031212194113769</v>
+        <v>1.028581734669764</v>
       </c>
       <c r="K23">
-        <v>1.034780913342682</v>
+        <v>1.035482732354039</v>
       </c>
       <c r="L23">
-        <v>1.016251414779408</v>
+        <v>1.02036435586407</v>
       </c>
       <c r="M23">
-        <v>1.025763006667245</v>
+        <v>1.029986713286435</v>
       </c>
       <c r="N23">
-        <v>1.032676633711102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013198177192981</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032304815281357</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036218394106523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011554825713222</v>
+        <v>1.004916398381419</v>
       </c>
       <c r="D24">
-        <v>1.027761031187194</v>
+        <v>1.024926937640966</v>
       </c>
       <c r="E24">
-        <v>1.010702758235543</v>
+        <v>1.011059290068914</v>
       </c>
       <c r="F24">
-        <v>1.020928687680249</v>
+        <v>1.020457013532512</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052951625171684</v>
+        <v>1.049771581309925</v>
       </c>
       <c r="J24">
-        <v>1.038615224436594</v>
+        <v>1.032226500278372</v>
       </c>
       <c r="K24">
-        <v>1.041317561535116</v>
+        <v>1.038530006285745</v>
       </c>
       <c r="L24">
-        <v>1.024544492690178</v>
+        <v>1.024894936334038</v>
       </c>
       <c r="M24">
-        <v>1.034597976993574</v>
+        <v>1.034134158987945</v>
       </c>
       <c r="N24">
-        <v>1.040090177186125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014432554934919</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035587270689899</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038365470182614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022947058303538</v>
+        <v>1.012150660704374</v>
       </c>
       <c r="D25">
-        <v>1.036416109967796</v>
+        <v>1.029759640520089</v>
       </c>
       <c r="E25">
-        <v>1.021403308714552</v>
+        <v>1.017644708738074</v>
       </c>
       <c r="F25">
-        <v>1.032207653034053</v>
+        <v>1.026584889532987</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05786484812996</v>
+        <v>1.051989258032998</v>
       </c>
       <c r="J25">
-        <v>1.046726094216543</v>
+        <v>1.036275913557453</v>
       </c>
       <c r="K25">
-        <v>1.048474241601946</v>
+        <v>1.041912896482058</v>
       </c>
       <c r="L25">
-        <v>1.03367820930761</v>
+        <v>1.029975151869838</v>
       </c>
       <c r="M25">
-        <v>1.044325745093377</v>
+        <v>1.038784065142583</v>
       </c>
       <c r="N25">
-        <v>1.048212565331492</v>
+        <v>1.015804700409719</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039267375430844</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040754476206639</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01767620359158</v>
+        <v>1.016357960127757</v>
       </c>
       <c r="D2">
-        <v>1.033445247324566</v>
+        <v>1.031614757341294</v>
       </c>
       <c r="E2">
-        <v>1.02272465933527</v>
+        <v>1.022443151704624</v>
       </c>
       <c r="F2">
-        <v>1.031318598697801</v>
+        <v>1.030892779940643</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053632022886894</v>
+        <v>1.052608087128124</v>
       </c>
       <c r="J2">
-        <v>1.03934077679846</v>
+        <v>1.038060177778551</v>
       </c>
       <c r="K2">
-        <v>1.044457500385933</v>
+        <v>1.042650541412765</v>
       </c>
       <c r="L2">
-        <v>1.033876227622623</v>
+        <v>1.033598427569125</v>
       </c>
       <c r="M2">
-        <v>1.042358199718055</v>
+        <v>1.04193787380191</v>
       </c>
       <c r="N2">
-        <v>1.016835877696173</v>
+        <v>1.017185388566773</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04209606260042</v>
+        <v>1.041763403477946</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042505583510647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041236650470312</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023369155656321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02159042505243</v>
+        <v>1.020060251588369</v>
       </c>
       <c r="D3">
-        <v>1.036072682966604</v>
+        <v>1.033995586208957</v>
       </c>
       <c r="E3">
-        <v>1.0263416632994</v>
+        <v>1.025993455098313</v>
       </c>
       <c r="F3">
-        <v>1.034687502303833</v>
+        <v>1.034188357418234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054779970550817</v>
+        <v>1.053607967837142</v>
       </c>
       <c r="J3">
-        <v>1.041509330680621</v>
+        <v>1.040018601010329</v>
       </c>
       <c r="K3">
-        <v>1.046263909223592</v>
+        <v>1.044211207754364</v>
       </c>
       <c r="L3">
-        <v>1.036648236537147</v>
+        <v>1.036304206136515</v>
       </c>
       <c r="M3">
-        <v>1.044894983899342</v>
+        <v>1.04440170977875</v>
       </c>
       <c r="N3">
-        <v>1.017570373001617</v>
+        <v>1.017708940954468</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044103749987627</v>
+        <v>1.043713358428939</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043780208221463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042337238686981</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023685524811911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024072990221015</v>
+        <v>1.022409680390399</v>
       </c>
       <c r="D4">
-        <v>1.037742179491014</v>
+        <v>1.035509569106426</v>
       </c>
       <c r="E4">
-        <v>1.028646002759466</v>
+        <v>1.028256371779578</v>
       </c>
       <c r="F4">
-        <v>1.036834263467382</v>
+        <v>1.036289199486551</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055497418163618</v>
+        <v>1.054231887324963</v>
       </c>
       <c r="J4">
-        <v>1.042880327786815</v>
+        <v>1.041257010824047</v>
       </c>
       <c r="K4">
-        <v>1.047405468547173</v>
+        <v>1.045197512510507</v>
       </c>
       <c r="L4">
-        <v>1.038410564775831</v>
+        <v>1.03802532107348</v>
       </c>
       <c r="M4">
-        <v>1.046507562746168</v>
+        <v>1.045968518722536</v>
       </c>
       <c r="N4">
-        <v>1.018034969299582</v>
+        <v>1.018040262784771</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045379990572079</v>
+        <v>1.04495337610794</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044588270172376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043035606822672</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023882979516134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025108612689991</v>
+        <v>1.023389938483171</v>
       </c>
       <c r="D5">
-        <v>1.038441485504404</v>
+        <v>1.036144170260953</v>
       </c>
       <c r="E5">
-        <v>1.029608425565633</v>
+        <v>1.029201548575695</v>
       </c>
       <c r="F5">
-        <v>1.037730589617314</v>
+        <v>1.037166402529694</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055795707206114</v>
+        <v>1.054491206903062</v>
       </c>
       <c r="J5">
-        <v>1.043452699575368</v>
+        <v>1.04177412261242</v>
       </c>
       <c r="K5">
-        <v>1.047883539286636</v>
+        <v>1.045610923297287</v>
       </c>
       <c r="L5">
-        <v>1.039146186822892</v>
+        <v>1.038743767004739</v>
       </c>
       <c r="M5">
-        <v>1.047180272176725</v>
+        <v>1.046622148624208</v>
       </c>
       <c r="N5">
-        <v>1.018229826311921</v>
+        <v>1.018179240307364</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045912391216776</v>
+        <v>1.04547067699763</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044933425733909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043335758332753</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023965747537008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025286208041864</v>
+        <v>1.023557919152403</v>
       </c>
       <c r="D6">
-        <v>1.038564069963316</v>
+        <v>1.036255626317413</v>
       </c>
       <c r="E6">
-        <v>1.029772042440082</v>
+        <v>1.029362012440316</v>
       </c>
       <c r="F6">
-        <v>1.037882490392721</v>
+        <v>1.037314909701065</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05584864230959</v>
+        <v>1.054537415941464</v>
       </c>
       <c r="J6">
-        <v>1.043552649812124</v>
+        <v>1.041864476398997</v>
       </c>
       <c r="K6">
-        <v>1.047968961513966</v>
+        <v>1.045685223980688</v>
       </c>
       <c r="L6">
-        <v>1.039271757613797</v>
+        <v>1.038866198381602</v>
       </c>
       <c r="M6">
-        <v>1.047294662543201</v>
+        <v>1.046733153663753</v>
       </c>
       <c r="N6">
-        <v>1.018264875502758</v>
+        <v>1.018204218047425</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046002922843471</v>
+        <v>1.045558529438107</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045002512097268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043397854916889</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023981326148021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024098619691464</v>
+        <v>1.022442730042379</v>
       </c>
       <c r="D7">
-        <v>1.037766492390765</v>
+        <v>1.035538854404924</v>
       </c>
       <c r="E7">
-        <v>1.028665698705341</v>
+        <v>1.0282793935719</v>
       </c>
       <c r="F7">
-        <v>1.03685124382999</v>
+        <v>1.036308925035954</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055509982448009</v>
+        <v>1.054248212907319</v>
       </c>
       <c r="J7">
-        <v>1.042899469521134</v>
+        <v>1.041283376783452</v>
       </c>
       <c r="K7">
-        <v>1.04742665784632</v>
+        <v>1.045223609548304</v>
       </c>
       <c r="L7">
-        <v>1.038427149463299</v>
+        <v>1.038045192484631</v>
       </c>
       <c r="M7">
-        <v>1.046521496501407</v>
+        <v>1.045985165091096</v>
       </c>
       <c r="N7">
-        <v>1.018044260067582</v>
+        <v>1.018075654462929</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045391018131036</v>
+        <v>1.04496655051169</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044623234056668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043076051072073</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023891128861209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01902413104546</v>
+        <v>1.017660063905353</v>
       </c>
       <c r="D8">
-        <v>1.034358016713703</v>
+        <v>1.032462685752261</v>
       </c>
       <c r="E8">
-        <v>1.02396345727729</v>
+        <v>1.023671740236293</v>
       </c>
       <c r="F8">
-        <v>1.032470369258515</v>
+        <v>1.032029627967702</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054035788693846</v>
+        <v>1.052975390754979</v>
       </c>
       <c r="J8">
-        <v>1.040094516799104</v>
+        <v>1.038768099808024</v>
       </c>
       <c r="K8">
-        <v>1.045091861175117</v>
+        <v>1.043220175558036</v>
       </c>
       <c r="L8">
-        <v>1.034828324390615</v>
+        <v>1.034540332378713</v>
       </c>
       <c r="M8">
-        <v>1.043227762989683</v>
+        <v>1.04279253561338</v>
       </c>
       <c r="N8">
-        <v>1.017094755843891</v>
+        <v>1.017457521105548</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042784261781571</v>
+        <v>1.042439809499786</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042976902840149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041664481213299</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023490463983783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009662038317946</v>
+        <v>1.008817341706672</v>
       </c>
       <c r="D9">
-        <v>1.028084689830361</v>
+        <v>1.026787760287396</v>
       </c>
       <c r="E9">
-        <v>1.015377178501637</v>
+        <v>1.01525395278271</v>
       </c>
       <c r="F9">
-        <v>1.024477470323707</v>
+        <v>1.02421792600393</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051225119916015</v>
+        <v>1.050523434166509</v>
       </c>
       <c r="J9">
-        <v>1.034878158737767</v>
+        <v>1.034062533462225</v>
       </c>
       <c r="K9">
-        <v>1.040737972513465</v>
+        <v>1.039460677082814</v>
       </c>
       <c r="L9">
-        <v>1.028225602696521</v>
+        <v>1.028104299852796</v>
       </c>
       <c r="M9">
-        <v>1.037185519436411</v>
+        <v>1.036929934605696</v>
       </c>
       <c r="N9">
-        <v>1.015326197073309</v>
+        <v>1.016208841065906</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038002230398418</v>
+        <v>1.037799951408568</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039895281417807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039002851137425</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022712610050526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003201717327795</v>
+        <v>1.00276132345633</v>
       </c>
       <c r="D10">
-        <v>1.023784541785306</v>
+        <v>1.022932857010543</v>
       </c>
       <c r="E10">
-        <v>1.009674263831327</v>
+        <v>1.009690469818836</v>
       </c>
       <c r="F10">
-        <v>1.019189519321733</v>
+        <v>1.019072957510689</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049250514985313</v>
+        <v>1.048818267765889</v>
       </c>
       <c r="J10">
-        <v>1.031288878769693</v>
+        <v>1.030865811136339</v>
       </c>
       <c r="K10">
-        <v>1.037737239620797</v>
+        <v>1.036900039206617</v>
       </c>
       <c r="L10">
-        <v>1.023871016072103</v>
+        <v>1.023886936685226</v>
       </c>
       <c r="M10">
-        <v>1.033220734434645</v>
+        <v>1.033106176273981</v>
       </c>
       <c r="N10">
-        <v>1.014119464955195</v>
+        <v>1.015481090295823</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034916012750975</v>
+        <v>1.034825352634202</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037790337241688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037210766731718</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022179491981093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000940188385435</v>
+        <v>1.000687312409623</v>
       </c>
       <c r="D11">
-        <v>1.022343225548964</v>
+        <v>1.021674615163596</v>
       </c>
       <c r="E11">
-        <v>1.009035262450451</v>
+        <v>1.009100103282181</v>
       </c>
       <c r="F11">
-        <v>1.018741809686926</v>
+        <v>1.018685260376106</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048686568926771</v>
+        <v>1.048370423332098</v>
       </c>
       <c r="J11">
-        <v>1.030273906660426</v>
+        <v>1.030031526308897</v>
       </c>
       <c r="K11">
-        <v>1.036855733748806</v>
+        <v>1.036199037286793</v>
       </c>
       <c r="L11">
-        <v>1.023788775044297</v>
+        <v>1.023852421541409</v>
       </c>
       <c r="M11">
-        <v>1.033318731322843</v>
+        <v>1.033263198148784</v>
       </c>
       <c r="N11">
-        <v>1.01384580092188</v>
+        <v>1.015535087154388</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035431313802575</v>
+        <v>1.035387387718027</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037199820001766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036751095783517</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022075781322922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000315846031522</v>
+        <v>1.000119095842081</v>
       </c>
       <c r="D12">
-        <v>1.021967184613823</v>
+        <v>1.021348594861446</v>
       </c>
       <c r="E12">
-        <v>1.009502580959284</v>
+        <v>1.009567598535298</v>
       </c>
       <c r="F12">
-        <v>1.019276702080067</v>
+        <v>1.019233570992796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048590374477695</v>
+        <v>1.048307333915525</v>
       </c>
       <c r="J12">
-        <v>1.030106844698935</v>
+        <v>1.029918416173325</v>
       </c>
       <c r="K12">
-        <v>1.036685291596774</v>
+        <v>1.036077908597887</v>
       </c>
       <c r="L12">
-        <v>1.024449963198431</v>
+        <v>1.024513765661999</v>
       </c>
       <c r="M12">
-        <v>1.034043680454836</v>
+        <v>1.034001335558945</v>
       </c>
       <c r="N12">
-        <v>1.013839469778873</v>
+        <v>1.015638283650169</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036331959901834</v>
+        <v>1.036298476987722</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037079312557665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036665456048219</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022078653159079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000922570242223</v>
+        <v>1.000669778876603</v>
       </c>
       <c r="D13">
-        <v>1.022401373232354</v>
+        <v>1.021723342389952</v>
       </c>
       <c r="E13">
-        <v>1.010861199972101</v>
+        <v>1.010885011633968</v>
       </c>
       <c r="F13">
-        <v>1.020619357128736</v>
+        <v>1.020550512263252</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048861175236832</v>
+        <v>1.048542123118946</v>
       </c>
       <c r="J13">
-        <v>1.030595458082091</v>
+        <v>1.030353302030073</v>
       </c>
       <c r="K13">
-        <v>1.037068987664908</v>
+        <v>1.036403186830273</v>
       </c>
       <c r="L13">
-        <v>1.025739887985343</v>
+        <v>1.025763257652967</v>
       </c>
       <c r="M13">
-        <v>1.035319159962217</v>
+        <v>1.035251561568502</v>
       </c>
       <c r="N13">
-        <v>1.014047212598212</v>
+        <v>1.015755402858396</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037617595054424</v>
+        <v>1.037564157178869</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037348111633735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036892704691373</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022168464759199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001902436109279</v>
+        <v>1.001559963334209</v>
       </c>
       <c r="D14">
-        <v>1.023071824988487</v>
+        <v>1.022303216455914</v>
       </c>
       <c r="E14">
-        <v>1.012201553506155</v>
+        <v>1.012180556780759</v>
       </c>
       <c r="F14">
-        <v>1.021913448272538</v>
+        <v>1.02180986350458</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049215828920155</v>
+        <v>1.048840556887143</v>
       </c>
       <c r="J14">
-        <v>1.031231826396167</v>
+        <v>1.030903551226311</v>
       </c>
       <c r="K14">
-        <v>1.037587789581108</v>
+        <v>1.036832871082922</v>
       </c>
       <c r="L14">
-        <v>1.02691364935101</v>
+        <v>1.026893036775246</v>
       </c>
       <c r="M14">
-        <v>1.036450055454209</v>
+        <v>1.036348319555049</v>
       </c>
       <c r="N14">
-        <v>1.014288917011452</v>
+        <v>1.015844864282373</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038685044160911</v>
+        <v>1.038604630749235</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037716339586925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037198056788787</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022271081187164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002414305088454</v>
+        <v>1.002025688740011</v>
       </c>
       <c r="D15">
-        <v>1.023417821196561</v>
+        <v>1.022603357840019</v>
       </c>
       <c r="E15">
-        <v>1.012744430740065</v>
+        <v>1.012704574668829</v>
       </c>
       <c r="F15">
-        <v>1.02242948859007</v>
+        <v>1.02230920376921</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049386339466822</v>
+        <v>1.048982352478408</v>
       </c>
       <c r="J15">
-        <v>1.031536506708955</v>
+        <v>1.031163858435308</v>
       </c>
       <c r="K15">
-        <v>1.037841670959677</v>
+        <v>1.03704160364982</v>
       </c>
       <c r="L15">
-        <v>1.02735932704431</v>
+        <v>1.027320194187352</v>
       </c>
       <c r="M15">
-        <v>1.036870811479143</v>
+        <v>1.036752656212966</v>
       </c>
       <c r="N15">
-        <v>1.014397876917198</v>
+        <v>1.015875327152395</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039055172058849</v>
+        <v>1.038961783006653</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037901692101001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037352057206165</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022317510631668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005026697641232</v>
+        <v>1.004416079993026</v>
       </c>
       <c r="D16">
-        <v>1.025150864801214</v>
+        <v>1.024115568039488</v>
       </c>
       <c r="E16">
-        <v>1.014893556850219</v>
+        <v>1.014780393499813</v>
       </c>
       <c r="F16">
-        <v>1.024433095464941</v>
+        <v>1.024237080235145</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05018232328323</v>
+        <v>1.049639654844243</v>
       </c>
       <c r="J16">
-        <v>1.032966136769912</v>
+        <v>1.032379348469455</v>
       </c>
       <c r="K16">
-        <v>1.039045001382374</v>
+        <v>1.038027203895429</v>
       </c>
       <c r="L16">
-        <v>1.028963107689612</v>
+        <v>1.028851905180919</v>
       </c>
       <c r="M16">
-        <v>1.03833935940881</v>
+        <v>1.038146659846556</v>
       </c>
       <c r="N16">
-        <v>1.014871259425079</v>
+        <v>1.015983633570776</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040177173989909</v>
+        <v>1.040024861271395</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038755637481085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038052358691365</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022518293229504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006520999925715</v>
+        <v>1.005797674477172</v>
       </c>
       <c r="D17">
-        <v>1.026132691511289</v>
+        <v>1.024982677752591</v>
       </c>
       <c r="E17">
-        <v>1.015844800741664</v>
+        <v>1.015700740941882</v>
       </c>
       <c r="F17">
-        <v>1.025290882660281</v>
+        <v>1.025057717342557</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05060607349409</v>
+        <v>1.049991749411141</v>
       </c>
       <c r="J17">
-        <v>1.033730871766568</v>
+        <v>1.033034865402786</v>
       </c>
       <c r="K17">
-        <v>1.039697526227358</v>
+        <v>1.03856640450883</v>
       </c>
       <c r="L17">
-        <v>1.029580602029185</v>
+        <v>1.029438967960144</v>
       </c>
       <c r="M17">
-        <v>1.038869540983186</v>
+        <v>1.038640209710812</v>
       </c>
       <c r="N17">
-        <v>1.01510835472348</v>
+        <v>1.016049810406624</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040467155067172</v>
+        <v>1.040285870002336</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039219570227902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038436415010072</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022620041645726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007179674737232</v>
+        <v>1.006415849785575</v>
       </c>
       <c r="D18">
-        <v>1.02654247631796</v>
+        <v>1.025350787453227</v>
       </c>
       <c r="E18">
-        <v>1.015769398923316</v>
+        <v>1.015623384172566</v>
       </c>
       <c r="F18">
-        <v>1.025153226502493</v>
+        <v>1.024908972015681</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050738831828917</v>
+        <v>1.050098328728893</v>
       </c>
       <c r="J18">
-        <v>1.033974159924061</v>
+        <v>1.033238646185913</v>
       </c>
       <c r="K18">
-        <v>1.039918257649171</v>
+        <v>1.038745824892248</v>
       </c>
       <c r="L18">
-        <v>1.029321372658979</v>
+        <v>1.029177779015418</v>
       </c>
       <c r="M18">
-        <v>1.038551461818116</v>
+        <v>1.038311163214496</v>
       </c>
       <c r="N18">
-        <v>1.015153434027904</v>
+        <v>1.016039476302525</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039977859372001</v>
+        <v>1.039787865088357</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039364043327362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038550541068521</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022637580141209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007095740788777</v>
+        <v>1.006348321612226</v>
       </c>
       <c r="D19">
-        <v>1.026453619370492</v>
+        <v>1.025280217656569</v>
       </c>
       <c r="E19">
-        <v>1.014756824411907</v>
+        <v>1.014631489097735</v>
       </c>
       <c r="F19">
-        <v>1.024102731474643</v>
+        <v>1.023868023584113</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050621059983468</v>
+        <v>1.049991205049724</v>
       </c>
       <c r="J19">
-        <v>1.0337602574718</v>
+        <v>1.033040385545341</v>
       </c>
       <c r="K19">
-        <v>1.039768652728142</v>
+        <v>1.038614114345734</v>
       </c>
       <c r="L19">
-        <v>1.028262402129631</v>
+        <v>1.028139139182962</v>
       </c>
       <c r="M19">
-        <v>1.037455612927028</v>
+        <v>1.037224695962044</v>
       </c>
       <c r="N19">
-        <v>1.015035501864915</v>
+        <v>1.015946585598441</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038785436502426</v>
+        <v>1.038602800115395</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039264638171107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038464414650132</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022584302340253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004908549172333</v>
+        <v>1.004334473723218</v>
       </c>
       <c r="D20">
-        <v>1.024936377524829</v>
+        <v>1.023947703878725</v>
       </c>
       <c r="E20">
-        <v>1.011177698895948</v>
+        <v>1.011140899511711</v>
       </c>
       <c r="F20">
-        <v>1.020579420588807</v>
+        <v>1.02041353288241</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04978848455108</v>
+        <v>1.049271198909489</v>
       </c>
       <c r="J20">
-        <v>1.032251557043147</v>
+        <v>1.031699325169742</v>
       </c>
       <c r="K20">
-        <v>1.038554478662339</v>
+        <v>1.037582138425486</v>
       </c>
       <c r="L20">
-        <v>1.025026808780482</v>
+        <v>1.024990638149273</v>
       </c>
       <c r="M20">
-        <v>1.034269806993081</v>
+        <v>1.034106687207815</v>
       </c>
       <c r="N20">
-        <v>1.014451553647236</v>
+        <v>1.015606381883914</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035735652375543</v>
+        <v>1.035606559577123</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038410085315904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037739074863626</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022324838287622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9999293873263152</v>
+        <v>0.9997926087972239</v>
       </c>
       <c r="D21">
-        <v>1.021615748072326</v>
+        <v>1.021063432305995</v>
       </c>
       <c r="E21">
-        <v>1.006549429157418</v>
+        <v>1.006697003734057</v>
       </c>
       <c r="F21">
-        <v>1.01625926003741</v>
+        <v>1.016255623825156</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04822041324767</v>
+        <v>1.04797647217864</v>
       </c>
       <c r="J21">
-        <v>1.029430061123511</v>
+        <v>1.029299003511571</v>
       </c>
       <c r="K21">
-        <v>1.036198857863222</v>
+        <v>1.035656445603544</v>
       </c>
       <c r="L21">
-        <v>1.021407773953743</v>
+        <v>1.021552600478724</v>
       </c>
       <c r="M21">
-        <v>1.030939007064115</v>
+        <v>1.030935436903484</v>
       </c>
       <c r="N21">
-        <v>1.013490038537971</v>
+        <v>1.015391993377786</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033058500250006</v>
+        <v>1.033055674677662</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036747806902793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036381102322414</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021924072997014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9967533995117932</v>
+        <v>0.9968932309332555</v>
       </c>
       <c r="D22">
-        <v>1.01949941767015</v>
+        <v>1.019223296999693</v>
       </c>
       <c r="E22">
-        <v>1.003694907091072</v>
+        <v>1.003963796987349</v>
       </c>
       <c r="F22">
-        <v>1.013607295385218</v>
+        <v>1.013707104673383</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047213366261112</v>
+        <v>1.047141806759225</v>
       </c>
       <c r="J22">
-        <v>1.027636753389777</v>
+        <v>1.02777039135475</v>
       </c>
       <c r="K22">
-        <v>1.03469423792309</v>
+        <v>1.03442331918779</v>
       </c>
       <c r="L22">
-        <v>1.019193520803182</v>
+        <v>1.019457137141248</v>
       </c>
       <c r="M22">
-        <v>1.02891392429253</v>
+        <v>1.029011825441926</v>
       </c>
       <c r="N22">
-        <v>1.012879582689181</v>
+        <v>1.015248892227757</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031455764405867</v>
+        <v>1.031533247585703</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035670511158263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035494464575055</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021665533105973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9984335754410457</v>
+        <v>0.9984136282195345</v>
       </c>
       <c r="D23">
-        <v>1.020612464912316</v>
+        <v>1.020180211260129</v>
       </c>
       <c r="E23">
-        <v>1.005205763982763</v>
+        <v>1.005402307967869</v>
       </c>
       <c r="F23">
-        <v>1.01501297666514</v>
+        <v>1.01505292709888</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047743018880732</v>
+        <v>1.047573184519519</v>
       </c>
       <c r="J23">
-        <v>1.028581734669764</v>
+        <v>1.028562644734517</v>
       </c>
       <c r="K23">
-        <v>1.035482732354039</v>
+        <v>1.035058413327962</v>
       </c>
       <c r="L23">
-        <v>1.02036435586407</v>
+        <v>1.020557148877131</v>
       </c>
       <c r="M23">
-        <v>1.029986713286435</v>
+        <v>1.030025920228098</v>
       </c>
       <c r="N23">
-        <v>1.013198177192981</v>
+        <v>1.015277104734456</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032304815281357</v>
+        <v>1.032335845304382</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036218394106523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035932942213395</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021795702367813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004916398381419</v>
+        <v>1.004343629727309</v>
       </c>
       <c r="D24">
-        <v>1.024926937640966</v>
+        <v>1.023939413583304</v>
       </c>
       <c r="E24">
-        <v>1.011059290068914</v>
+        <v>1.01102594697562</v>
       </c>
       <c r="F24">
-        <v>1.020457013532512</v>
+        <v>1.020292668399909</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049771581309925</v>
+        <v>1.049255006505725</v>
       </c>
       <c r="J24">
-        <v>1.032226500278372</v>
+        <v>1.03167549438636</v>
       </c>
       <c r="K24">
-        <v>1.038530006285745</v>
+        <v>1.037558776121497</v>
       </c>
       <c r="L24">
-        <v>1.024894936334038</v>
+        <v>1.024862162377158</v>
       </c>
       <c r="M24">
-        <v>1.034134158987945</v>
+        <v>1.033972553364278</v>
       </c>
       <c r="N24">
-        <v>1.014432554934919</v>
+        <v>1.015589374361589</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035587270689899</v>
+        <v>1.035459369782961</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038365470182614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037692565149943</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022313627546164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012150660704374</v>
+        <v>1.011154646438207</v>
       </c>
       <c r="D25">
-        <v>1.029759640520089</v>
+        <v>1.028294244808288</v>
       </c>
       <c r="E25">
-        <v>1.017644708738074</v>
+        <v>1.017468875025907</v>
       </c>
       <c r="F25">
-        <v>1.026584889532987</v>
+        <v>1.026271424638236</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051989258032998</v>
+        <v>1.051185647756679</v>
       </c>
       <c r="J25">
-        <v>1.036275913557453</v>
+        <v>1.035312356581484</v>
       </c>
       <c r="K25">
-        <v>1.041912896482058</v>
+        <v>1.040468651623537</v>
       </c>
       <c r="L25">
-        <v>1.029975151869838</v>
+        <v>1.029801929304935</v>
       </c>
       <c r="M25">
-        <v>1.038784065142583</v>
+        <v>1.038475153749956</v>
       </c>
       <c r="N25">
-        <v>1.015804700409719</v>
+        <v>1.016512223497411</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039267375430844</v>
+        <v>1.039022892314801</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040754476206639</v>
+        <v>1.039746816179048</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022925295871516</v>
       </c>
     </row>
   </sheetData>
